--- a/KeepFeatureChecklist.xlsx
+++ b/KeepFeatureChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="Full List Per Mod" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Full List Per Mod'!$A$1:$B$409</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$204</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$133</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Traps!$A$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Weapons!$A$2:$L$2</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="958">
   <si>
     <t>KEEP - ENEMIES TO INCLUDE</t>
   </si>
@@ -2864,6 +2864,60 @@
   </si>
   <si>
     <t>Alternate Frame for Explobox</t>
+  </si>
+  <si>
+    <t>weapon_gungnir</t>
+  </si>
+  <si>
+    <t>AoA</t>
+  </si>
+  <si>
+    <t>Heavily modified for Keep</t>
+  </si>
+  <si>
+    <t>Gungnir</t>
+  </si>
+  <si>
+    <t>Elemental Tome</t>
+  </si>
+  <si>
+    <t>weapon_ice</t>
+  </si>
+  <si>
+    <t>weapon_mace</t>
+  </si>
+  <si>
+    <t>Blood Mace</t>
+  </si>
+  <si>
+    <t>weapon_rapier</t>
+  </si>
+  <si>
+    <t>Ghost Rapier</t>
+  </si>
+  <si>
+    <t>weapon_scimitar</t>
+  </si>
+  <si>
+    <t>Fire Scimitar</t>
+  </si>
+  <si>
+    <t>weapon_voidstaff</t>
+  </si>
+  <si>
+    <t>Void Staff</t>
+  </si>
+  <si>
+    <t>Flak Cannon</t>
+  </si>
+  <si>
+    <t>weapon_flak</t>
+  </si>
+  <si>
+    <t>weapon_sanguinators</t>
+  </si>
+  <si>
+    <t>Sanguinators</t>
   </si>
 </sst>
 </file>
@@ -3267,8 +3321,8 @@
   <dimension ref="A1:N699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15549,11 +15603,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L663"/>
+  <dimension ref="A1:L672"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15611,23 +15665,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>555</v>
+        <v>305</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -15639,16 +15691,16 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>210</v>
+        <v>556</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>209</v>
+        <v>555</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -15661,16 +15713,16 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -15683,15 +15735,17 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -15701,15 +15755,15 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>596</v>
+        <v>943</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>597</v>
+        <v>940</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>941</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>65</v>
@@ -15717,21 +15771,23 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>598</v>
+        <v>954</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>599</v>
+        <v>955</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>62</v>
+        <v>941</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>65</v>
@@ -15739,29 +15795,33 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>98</v>
+        <v>944</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>71</v>
+        <v>945</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>941</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -15769,10 +15829,10 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>64</v>
@@ -15789,10 +15849,10 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="5" t="s">
-        <v>681</v>
+        <v>596</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>682</v>
+        <v>597</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>62</v>
@@ -15811,10 +15871,10 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5" t="s">
-        <v>683</v>
+        <v>598</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>684</v>
+        <v>599</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>62</v>
@@ -15833,10 +15893,10 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>61</v>
@@ -15853,15 +15913,15 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>148</v>
+        <v>947</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>679</v>
+        <v>946</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>941</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>65</v>
@@ -15869,7 +15929,9 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -15877,10 +15939,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>64</v>
@@ -15897,16 +15959,16 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5" t="s">
-        <v>100</v>
+        <v>681</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>73</v>
+        <v>682</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -15919,15 +15981,17 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5" t="s">
-        <v>151</v>
+        <v>683</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>82</v>
+        <v>684</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -15939,10 +16003,10 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5" t="s">
-        <v>680</v>
+        <v>99</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
@@ -15961,15 +16025,17 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>75</v>
+        <v>679</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -15981,13 +16047,13 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -15999,25 +16065,25 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>949</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>81</v>
+        <v>948</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>62</v>
+        <v>941</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -16025,15 +16091,17 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -16043,59 +16111,65 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>776</v>
+        <v>957</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>865</v>
+        <v>956</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>941</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>774</v>
+        <v>951</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>765</v>
+        <v>950</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>941</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5" t="s">
-        <v>775</v>
+        <v>151</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>766</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>697</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -16103,20 +16177,20 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="5" t="s">
-        <v>853</v>
+        <v>680</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>767</v>
+        <v>74</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -16125,17 +16199,17 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="5" t="s">
-        <v>773</v>
+        <v>101</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>768</v>
+        <v>75</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>697</v>
+        <v>61</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -16144,18 +16218,18 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="5" t="s">
-        <v>772</v>
+        <v>149</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>769</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -16164,23 +16238,25 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="5" t="s">
-        <v>771</v>
+        <v>148</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>770</v>
+        <v>81</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>697</v>
+        <v>62</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
@@ -16189,15 +16265,15 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="5" t="s">
-        <v>862</v>
+        <v>150</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>768</v>
+        <v>80</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -16207,17 +16283,17 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>863</v>
+        <v>953</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>864</v>
+        <v>952</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>697</v>
+        <v>941</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>65</v>
@@ -16225,16 +16301,24 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -16246,9 +16330,15 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
+      <c r="E33" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -16256,41 +16346,63 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="E34" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="E35" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
+      <c r="E36" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -16300,11 +16412,17 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -16314,25 +16432,39 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="E38" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -16340,14 +16472,22 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -16749,7 +16889,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="4"/>
@@ -16763,7 +16903,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="4"/>
@@ -16777,7 +16917,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="4"/>
@@ -16791,7 +16931,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="4"/>
@@ -16805,7 +16945,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="4"/>
@@ -16819,7 +16959,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="4"/>
@@ -16833,7 +16973,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="4"/>
@@ -16847,7 +16987,7 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="4"/>
@@ -16861,7 +17001,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="4"/>
@@ -25009,6 +25149,7 @@
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
+      <c r="D659" s="5"/>
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
       <c r="G659" s="4"/>
@@ -25022,6 +25163,7 @@
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
+      <c r="D660" s="5"/>
       <c r="E660" s="5"/>
       <c r="F660" s="5"/>
       <c r="G660" s="4"/>
@@ -25035,6 +25177,7 @@
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
+      <c r="D661" s="5"/>
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
       <c r="G661" s="4"/>
@@ -25048,6 +25191,7 @@
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
+      <c r="D662" s="5"/>
       <c r="E662" s="5"/>
       <c r="F662" s="5"/>
       <c r="G662" s="4"/>
@@ -25061,6 +25205,7 @@
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
+      <c r="D663" s="5"/>
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
       <c r="G663" s="4"/>
@@ -25070,8 +25215,130 @@
       <c r="K663" s="4"/>
       <c r="L663" s="5"/>
     </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A664" s="5"/>
+      <c r="B664" s="5"/>
+      <c r="C664" s="5"/>
+      <c r="D664" s="5"/>
+      <c r="E664" s="5"/>
+      <c r="F664" s="5"/>
+      <c r="G664" s="4"/>
+      <c r="H664" s="4"/>
+      <c r="I664" s="4"/>
+      <c r="J664" s="4"/>
+      <c r="K664" s="4"/>
+      <c r="L664" s="5"/>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A665" s="5"/>
+      <c r="B665" s="5"/>
+      <c r="C665" s="5"/>
+      <c r="D665" s="5"/>
+      <c r="E665" s="5"/>
+      <c r="F665" s="5"/>
+      <c r="G665" s="4"/>
+      <c r="H665" s="4"/>
+      <c r="I665" s="4"/>
+      <c r="J665" s="4"/>
+      <c r="K665" s="4"/>
+      <c r="L665" s="5"/>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A666" s="5"/>
+      <c r="B666" s="5"/>
+      <c r="C666" s="5"/>
+      <c r="D666" s="5"/>
+      <c r="E666" s="5"/>
+      <c r="F666" s="5"/>
+      <c r="G666" s="4"/>
+      <c r="H666" s="4"/>
+      <c r="I666" s="4"/>
+      <c r="J666" s="4"/>
+      <c r="K666" s="4"/>
+      <c r="L666" s="5"/>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A667" s="5"/>
+      <c r="B667" s="5"/>
+      <c r="C667" s="5"/>
+      <c r="D667" s="5"/>
+      <c r="E667" s="5"/>
+      <c r="F667" s="5"/>
+      <c r="G667" s="4"/>
+      <c r="H667" s="4"/>
+      <c r="I667" s="4"/>
+      <c r="J667" s="4"/>
+      <c r="K667" s="4"/>
+      <c r="L667" s="5"/>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A668" s="5"/>
+      <c r="B668" s="5"/>
+      <c r="C668" s="5"/>
+      <c r="E668" s="5"/>
+      <c r="F668" s="5"/>
+      <c r="G668" s="4"/>
+      <c r="H668" s="4"/>
+      <c r="I668" s="4"/>
+      <c r="J668" s="4"/>
+      <c r="K668" s="4"/>
+      <c r="L668" s="5"/>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A669" s="5"/>
+      <c r="B669" s="5"/>
+      <c r="C669" s="5"/>
+      <c r="E669" s="5"/>
+      <c r="F669" s="5"/>
+      <c r="G669" s="4"/>
+      <c r="H669" s="4"/>
+      <c r="I669" s="4"/>
+      <c r="J669" s="4"/>
+      <c r="K669" s="4"/>
+      <c r="L669" s="5"/>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A670" s="5"/>
+      <c r="B670" s="5"/>
+      <c r="C670" s="5"/>
+      <c r="E670" s="5"/>
+      <c r="F670" s="5"/>
+      <c r="G670" s="4"/>
+      <c r="H670" s="4"/>
+      <c r="I670" s="4"/>
+      <c r="J670" s="4"/>
+      <c r="K670" s="4"/>
+      <c r="L670" s="5"/>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A671" s="5"/>
+      <c r="B671" s="5"/>
+      <c r="C671" s="5"/>
+      <c r="E671" s="5"/>
+      <c r="F671" s="5"/>
+      <c r="G671" s="4"/>
+      <c r="H671" s="4"/>
+      <c r="I671" s="4"/>
+      <c r="J671" s="4"/>
+      <c r="K671" s="4"/>
+      <c r="L671" s="5"/>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A672" s="5"/>
+      <c r="B672" s="5"/>
+      <c r="C672" s="5"/>
+      <c r="E672" s="5"/>
+      <c r="F672" s="5"/>
+      <c r="G672" s="4"/>
+      <c r="H672" s="4"/>
+      <c r="I672" s="4"/>
+      <c r="J672" s="4"/>
+      <c r="K672" s="4"/>
+      <c r="L672" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25081,7 +25348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34789,11 +35056,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L671"/>
+  <dimension ref="A1:L697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34848,39 +35115,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>610</v>
+        <v>386</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -34894,19 +35165,21 @@
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>609</v>
+        <v>939</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>381</v>
+        <v>938</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>831</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -34914,10 +35187,10 @@
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>383</v>
+        <v>624</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>382</v>
+        <v>623</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>64</v>
@@ -34930,37 +35203,43 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>379</v>
+        <v>498</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>338</v>
+        <v>499</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>608</v>
+        <v>387</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -34968,19 +35247,19 @@
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>685</v>
+        <v>509</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -34988,19 +35267,19 @@
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>686</v>
+        <v>541</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -35008,23 +35287,21 @@
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
-        <v>687</v>
+        <v>542</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -35032,21 +35309,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>688</v>
+        <v>416</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -35054,17 +35329,17 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>378</v>
+        <v>610</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>339</v>
+        <v>549</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -35072,63 +35347,61 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>689</v>
+        <v>449</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>690</v>
+        <v>511</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>298</v>
+        <v>820</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>477</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -35138,41 +35411,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>384</v>
+        <v>839</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>607</v>
+        <v>840</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>600</v>
+        <v>832</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>380</v>
+        <v>830</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>831</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -35182,34 +35451,38 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>550</v>
+        <v>841</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>611</v>
+        <v>842</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -35217,13 +35490,19 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -35231,13 +35510,19 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -35245,13 +35530,19 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -35259,13 +35550,19 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -35273,13 +35570,19 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -35287,13 +35590,19 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -35301,13 +35610,19 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -35315,13 +35630,19 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -35329,13 +35650,19 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -35343,41 +35670,63 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -35385,41 +35734,63 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -35427,27 +35798,43 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -35455,69 +35842,107 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -35525,27 +35950,43 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -35553,13 +35994,19 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -44163,16 +44610,24 @@
       <c r="L659" s="5"/>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E660" s="8"/>
-      <c r="F660" s="8"/>
-      <c r="G660" s="9"/>
-      <c r="H660" s="9"/>
-      <c r="I660" s="9"/>
-      <c r="J660" s="9"/>
-      <c r="K660" s="9"/>
-      <c r="L660" s="8"/>
+      <c r="A660" s="5"/>
+      <c r="B660" s="5"/>
+      <c r="C660" s="5"/>
+      <c r="D660" s="5"/>
+      <c r="E660" s="5"/>
+      <c r="F660" s="5"/>
+      <c r="G660" s="4"/>
+      <c r="H660" s="4"/>
+      <c r="I660" s="4"/>
+      <c r="J660" s="4"/>
+      <c r="K660" s="4"/>
+      <c r="L660" s="5"/>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A661" s="5"/>
+      <c r="B661" s="5"/>
+      <c r="C661" s="5"/>
+      <c r="D661" s="5"/>
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
       <c r="G661" s="4"/>
@@ -44183,6 +44638,10 @@
       <c r="L661" s="5"/>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A662" s="5"/>
+      <c r="B662" s="5"/>
+      <c r="C662" s="5"/>
+      <c r="D662" s="5"/>
       <c r="E662" s="5"/>
       <c r="F662" s="5"/>
       <c r="G662" s="4"/>
@@ -44193,6 +44652,10 @@
       <c r="L662" s="5"/>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A663" s="5"/>
+      <c r="B663" s="5"/>
+      <c r="C663" s="5"/>
+      <c r="D663" s="5"/>
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
       <c r="G663" s="4"/>
@@ -44203,6 +44666,10 @@
       <c r="L663" s="5"/>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A664" s="5"/>
+      <c r="B664" s="5"/>
+      <c r="C664" s="5"/>
+      <c r="D664" s="5"/>
       <c r="E664" s="5"/>
       <c r="F664" s="5"/>
       <c r="G664" s="4"/>
@@ -44213,6 +44680,10 @@
       <c r="L664" s="5"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A665" s="5"/>
+      <c r="B665" s="5"/>
+      <c r="C665" s="5"/>
+      <c r="D665" s="5"/>
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
       <c r="G665" s="4"/>
@@ -44223,6 +44694,10 @@
       <c r="L665" s="5"/>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A666" s="5"/>
+      <c r="B666" s="5"/>
+      <c r="C666" s="5"/>
+      <c r="D666" s="5"/>
       <c r="E666" s="5"/>
       <c r="F666" s="5"/>
       <c r="G666" s="4"/>
@@ -44233,6 +44708,10 @@
       <c r="L666" s="5"/>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A667" s="5"/>
+      <c r="B667" s="5"/>
+      <c r="C667" s="5"/>
+      <c r="D667" s="5"/>
       <c r="E667" s="5"/>
       <c r="F667" s="5"/>
       <c r="G667" s="4"/>
@@ -44243,6 +44722,10 @@
       <c r="L667" s="5"/>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A668" s="5"/>
+      <c r="B668" s="5"/>
+      <c r="C668" s="5"/>
+      <c r="D668" s="5"/>
       <c r="E668" s="5"/>
       <c r="F668" s="5"/>
       <c r="G668" s="4"/>
@@ -44253,6 +44736,10 @@
       <c r="L668" s="5"/>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A669" s="5"/>
+      <c r="B669" s="5"/>
+      <c r="C669" s="5"/>
+      <c r="D669" s="5"/>
       <c r="E669" s="5"/>
       <c r="F669" s="5"/>
       <c r="G669" s="4"/>
@@ -44263,6 +44750,10 @@
       <c r="L669" s="5"/>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A670" s="5"/>
+      <c r="B670" s="5"/>
+      <c r="C670" s="5"/>
+      <c r="D670" s="5"/>
       <c r="E670" s="5"/>
       <c r="F670" s="5"/>
       <c r="G670" s="4"/>
@@ -44273,6 +44764,10 @@
       <c r="L670" s="5"/>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A671" s="5"/>
+      <c r="B671" s="5"/>
+      <c r="C671" s="5"/>
+      <c r="D671" s="5"/>
       <c r="E671" s="5"/>
       <c r="F671" s="5"/>
       <c r="G671" s="4"/>
@@ -44282,18 +44777,335 @@
       <c r="K671" s="4"/>
       <c r="L671" s="5"/>
     </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A672" s="5"/>
+      <c r="B672" s="5"/>
+      <c r="C672" s="5"/>
+      <c r="D672" s="5"/>
+      <c r="E672" s="5"/>
+      <c r="F672" s="5"/>
+      <c r="G672" s="4"/>
+      <c r="H672" s="4"/>
+      <c r="I672" s="4"/>
+      <c r="J672" s="4"/>
+      <c r="K672" s="4"/>
+      <c r="L672" s="5"/>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A673" s="5"/>
+      <c r="B673" s="5"/>
+      <c r="C673" s="5"/>
+      <c r="D673" s="5"/>
+      <c r="E673" s="5"/>
+      <c r="F673" s="5"/>
+      <c r="G673" s="4"/>
+      <c r="H673" s="4"/>
+      <c r="I673" s="4"/>
+      <c r="J673" s="4"/>
+      <c r="K673" s="4"/>
+      <c r="L673" s="5"/>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A674" s="5"/>
+      <c r="B674" s="5"/>
+      <c r="C674" s="5"/>
+      <c r="D674" s="5"/>
+      <c r="E674" s="5"/>
+      <c r="F674" s="5"/>
+      <c r="G674" s="4"/>
+      <c r="H674" s="4"/>
+      <c r="I674" s="4"/>
+      <c r="J674" s="4"/>
+      <c r="K674" s="4"/>
+      <c r="L674" s="5"/>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A675" s="5"/>
+      <c r="B675" s="5"/>
+      <c r="C675" s="5"/>
+      <c r="D675" s="5"/>
+      <c r="E675" s="5"/>
+      <c r="F675" s="5"/>
+      <c r="G675" s="4"/>
+      <c r="H675" s="4"/>
+      <c r="I675" s="4"/>
+      <c r="J675" s="4"/>
+      <c r="K675" s="4"/>
+      <c r="L675" s="5"/>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A676" s="5"/>
+      <c r="B676" s="5"/>
+      <c r="C676" s="5"/>
+      <c r="D676" s="5"/>
+      <c r="E676" s="5"/>
+      <c r="F676" s="5"/>
+      <c r="G676" s="4"/>
+      <c r="H676" s="4"/>
+      <c r="I676" s="4"/>
+      <c r="J676" s="4"/>
+      <c r="K676" s="4"/>
+      <c r="L676" s="5"/>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A677" s="5"/>
+      <c r="B677" s="5"/>
+      <c r="C677" s="5"/>
+      <c r="D677" s="5"/>
+      <c r="E677" s="5"/>
+      <c r="F677" s="5"/>
+      <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
+      <c r="I677" s="4"/>
+      <c r="J677" s="4"/>
+      <c r="K677" s="4"/>
+      <c r="L677" s="5"/>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A678" s="5"/>
+      <c r="B678" s="5"/>
+      <c r="C678" s="5"/>
+      <c r="D678" s="5"/>
+      <c r="E678" s="5"/>
+      <c r="F678" s="5"/>
+      <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
+      <c r="I678" s="4"/>
+      <c r="J678" s="4"/>
+      <c r="K678" s="4"/>
+      <c r="L678" s="5"/>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A679" s="5"/>
+      <c r="B679" s="5"/>
+      <c r="C679" s="5"/>
+      <c r="D679" s="5"/>
+      <c r="E679" s="5"/>
+      <c r="F679" s="5"/>
+      <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
+      <c r="I679" s="4"/>
+      <c r="J679" s="4"/>
+      <c r="K679" s="4"/>
+      <c r="L679" s="5"/>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A680" s="5"/>
+      <c r="B680" s="5"/>
+      <c r="C680" s="5"/>
+      <c r="D680" s="5"/>
+      <c r="E680" s="5"/>
+      <c r="F680" s="5"/>
+      <c r="G680" s="4"/>
+      <c r="H680" s="4"/>
+      <c r="I680" s="4"/>
+      <c r="J680" s="4"/>
+      <c r="K680" s="4"/>
+      <c r="L680" s="5"/>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A681" s="5"/>
+      <c r="B681" s="5"/>
+      <c r="C681" s="5"/>
+      <c r="D681" s="5"/>
+      <c r="E681" s="5"/>
+      <c r="F681" s="5"/>
+      <c r="G681" s="4"/>
+      <c r="H681" s="4"/>
+      <c r="I681" s="4"/>
+      <c r="J681" s="4"/>
+      <c r="K681" s="4"/>
+      <c r="L681" s="5"/>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A682" s="5"/>
+      <c r="B682" s="5"/>
+      <c r="C682" s="5"/>
+      <c r="D682" s="5"/>
+      <c r="E682" s="5"/>
+      <c r="F682" s="5"/>
+      <c r="G682" s="4"/>
+      <c r="H682" s="4"/>
+      <c r="I682" s="4"/>
+      <c r="J682" s="4"/>
+      <c r="K682" s="4"/>
+      <c r="L682" s="5"/>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A683" s="5"/>
+      <c r="B683" s="5"/>
+      <c r="C683" s="5"/>
+      <c r="D683" s="5"/>
+      <c r="E683" s="5"/>
+      <c r="F683" s="5"/>
+      <c r="G683" s="4"/>
+      <c r="H683" s="4"/>
+      <c r="I683" s="4"/>
+      <c r="J683" s="4"/>
+      <c r="K683" s="4"/>
+      <c r="L683" s="5"/>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A684" s="5"/>
+      <c r="B684" s="5"/>
+      <c r="C684" s="5"/>
+      <c r="D684" s="5"/>
+      <c r="E684" s="5"/>
+      <c r="F684" s="5"/>
+      <c r="G684" s="4"/>
+      <c r="H684" s="4"/>
+      <c r="I684" s="4"/>
+      <c r="J684" s="4"/>
+      <c r="K684" s="4"/>
+      <c r="L684" s="5"/>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A685" s="5"/>
+      <c r="B685" s="5"/>
+      <c r="C685" s="5"/>
+      <c r="D685" s="5"/>
+      <c r="E685" s="5"/>
+      <c r="F685" s="5"/>
+      <c r="G685" s="4"/>
+      <c r="H685" s="4"/>
+      <c r="I685" s="4"/>
+      <c r="J685" s="4"/>
+      <c r="K685" s="4"/>
+      <c r="L685" s="5"/>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E686" s="8"/>
+      <c r="F686" s="8"/>
+      <c r="G686" s="9"/>
+      <c r="H686" s="9"/>
+      <c r="I686" s="9"/>
+      <c r="J686" s="9"/>
+      <c r="K686" s="9"/>
+      <c r="L686" s="8"/>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E687" s="5"/>
+      <c r="F687" s="5"/>
+      <c r="G687" s="4"/>
+      <c r="H687" s="4"/>
+      <c r="I687" s="4"/>
+      <c r="J687" s="4"/>
+      <c r="K687" s="4"/>
+      <c r="L687" s="5"/>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E688" s="5"/>
+      <c r="F688" s="5"/>
+      <c r="G688" s="4"/>
+      <c r="H688" s="4"/>
+      <c r="I688" s="4"/>
+      <c r="J688" s="4"/>
+      <c r="K688" s="4"/>
+      <c r="L688" s="5"/>
+    </row>
+    <row r="689" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E689" s="5"/>
+      <c r="F689" s="5"/>
+      <c r="G689" s="4"/>
+      <c r="H689" s="4"/>
+      <c r="I689" s="4"/>
+      <c r="J689" s="4"/>
+      <c r="K689" s="4"/>
+      <c r="L689" s="5"/>
+    </row>
+    <row r="690" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E690" s="5"/>
+      <c r="F690" s="5"/>
+      <c r="G690" s="4"/>
+      <c r="H690" s="4"/>
+      <c r="I690" s="4"/>
+      <c r="J690" s="4"/>
+      <c r="K690" s="4"/>
+      <c r="L690" s="5"/>
+    </row>
+    <row r="691" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E691" s="5"/>
+      <c r="F691" s="5"/>
+      <c r="G691" s="4"/>
+      <c r="H691" s="4"/>
+      <c r="I691" s="4"/>
+      <c r="J691" s="4"/>
+      <c r="K691" s="4"/>
+      <c r="L691" s="5"/>
+    </row>
+    <row r="692" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E692" s="5"/>
+      <c r="F692" s="5"/>
+      <c r="G692" s="4"/>
+      <c r="H692" s="4"/>
+      <c r="I692" s="4"/>
+      <c r="J692" s="4"/>
+      <c r="K692" s="4"/>
+      <c r="L692" s="5"/>
+    </row>
+    <row r="693" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E693" s="5"/>
+      <c r="F693" s="5"/>
+      <c r="G693" s="4"/>
+      <c r="H693" s="4"/>
+      <c r="I693" s="4"/>
+      <c r="J693" s="4"/>
+      <c r="K693" s="4"/>
+      <c r="L693" s="5"/>
+    </row>
+    <row r="694" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E694" s="5"/>
+      <c r="F694" s="5"/>
+      <c r="G694" s="4"/>
+      <c r="H694" s="4"/>
+      <c r="I694" s="4"/>
+      <c r="J694" s="4"/>
+      <c r="K694" s="4"/>
+      <c r="L694" s="5"/>
+    </row>
+    <row r="695" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E695" s="5"/>
+      <c r="F695" s="5"/>
+      <c r="G695" s="4"/>
+      <c r="H695" s="4"/>
+      <c r="I695" s="4"/>
+      <c r="J695" s="4"/>
+      <c r="K695" s="4"/>
+      <c r="L695" s="5"/>
+    </row>
+    <row r="696" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E696" s="5"/>
+      <c r="F696" s="5"/>
+      <c r="G696" s="4"/>
+      <c r="H696" s="4"/>
+      <c r="I696" s="4"/>
+      <c r="J696" s="4"/>
+      <c r="K696" s="4"/>
+      <c r="L696" s="5"/>
+    </row>
+    <row r="697" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E697" s="5"/>
+      <c r="F697" s="5"/>
+      <c r="G697" s="4"/>
+      <c r="H697" s="4"/>
+      <c r="I697" s="4"/>
+      <c r="J697" s="4"/>
+      <c r="K697" s="4"/>
+      <c r="L697" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L663"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44462,16 +45274,16 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>831</v>
+        <v>65</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -44487,42 +45299,40 @@
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>902</v>
+        <v>243</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>903</v>
+        <v>495</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5" t="s">
-        <v>904</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>495</v>
+        <v>220</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
@@ -44533,10 +45343,10 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>61</v>
@@ -44553,10 +45363,10 @@
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>61</v>
@@ -44569,17 +45379,17 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>270</v>
+        <v>906</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>242</v>
+        <v>905</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -44593,13 +45403,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>906</v>
+        <v>269</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>905</v>
+        <v>241</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -44609,17 +45419,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -44633,13 +45443,13 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -44653,15 +45463,17 @@
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -44669,17 +45481,17 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>267</v>
+        <v>496</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>63</v>
@@ -44695,17 +45507,15 @@
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>222</v>
+        <v>408</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -44717,23 +45527,17 @@
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>498</v>
+        <v>937</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>499</v>
+        <v>936</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
@@ -44743,15 +45547,17 @@
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -44759,17 +45565,17 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>937</v>
+        <v>245</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>936</v>
+        <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>831</v>
+        <v>61</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -44783,17 +45589,15 @@
       <c r="C23" s="7"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>613</v>
+        <v>364</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -44801,17 +45605,17 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -44821,19 +45625,21 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>364</v>
+        <v>617</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -44841,20 +45647,24 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>238</v>
+        <v>651</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
@@ -44865,13 +45675,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>415</v>
+        <v>219</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -44885,16 +45695,16 @@
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>617</v>
+        <v>249</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>357</v>
+        <v>223</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -44904,37 +45714,33 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>247</v>
+        <v>891</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>651</v>
+        <v>889</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>61</v>
@@ -44951,16 +45757,16 @@
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>223</v>
+        <v>490</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>64</v>
+        <v>477</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -44969,17 +45775,17 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>839</v>
+        <v>421</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>840</v>
+        <v>618</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>831</v>
+        <v>420</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -44989,19 +45795,21 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>832</v>
+        <v>360</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>830</v>
+        <v>358</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -45010,16 +45818,16 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>841</v>
+        <v>897</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>842</v>
+        <v>896</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>831</v>
+        <v>63</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -45029,19 +45837,21 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>835</v>
+        <v>251</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>836</v>
+        <v>225</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="H35" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -45049,19 +45859,21 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>833</v>
+        <v>262</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>834</v>
+        <v>235</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>477</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -45070,16 +45882,16 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>837</v>
+        <v>892</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>838</v>
+        <v>893</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>831</v>
+        <v>63</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -45090,13 +45902,13 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>891</v>
+        <v>260</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>889</v>
+        <v>234</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>63</v>
@@ -45113,13 +45925,13 @@
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
-        <v>257</v>
+        <v>791</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>231</v>
+        <v>790</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -45133,35 +45945,37 @@
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>490</v>
+        <v>612</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>477</v>
+        <v>68</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>421</v>
+        <v>887</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>618</v>
+        <v>886</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -45171,21 +45985,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>360</v>
+        <v>887</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>358</v>
+        <v>883</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -45193,14 +46005,14 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="5" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>63</v>
@@ -45213,21 +46025,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>251</v>
+        <v>887</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>225</v>
+        <v>884</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -45239,17 +46049,15 @@
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>413</v>
+        <v>848</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>420</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -45257,17 +46065,17 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>494</v>
+        <v>895</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>414</v>
+        <v>894</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -45281,17 +46089,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -45299,14 +46105,14 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>892</v>
+        <v>250</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>893</v>
+        <v>224</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>63</v>
@@ -45323,13 +46129,13 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -45343,13 +46149,13 @@
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5" t="s">
-        <v>254</v>
+        <v>867</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>228</v>
+        <v>847</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -45363,13 +46169,13 @@
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>791</v>
+        <v>846</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -45383,37 +46189,33 @@
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>612</v>
+        <v>229</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>887</v>
+        <v>263</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>886</v>
+        <v>236</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -45423,34 +46225,38 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5" t="s">
-        <v>887</v>
+        <v>366</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>883</v>
+        <v>365</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>887</v>
+        <v>258</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>885</v>
+        <v>232</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>63</v>
@@ -45463,17 +46269,17 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>887</v>
+        <v>265</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>884</v>
+        <v>237</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -45487,13 +46293,13 @@
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>848</v>
+        <v>259</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -45503,14 +46309,14 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>63</v>
@@ -45527,10 +46333,10 @@
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>226</v>
+        <v>492</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>61</v>
@@ -45539,7 +46345,9 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="5"/>
+      <c r="L59" s="5" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
@@ -45547,10 +46355,10 @@
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>250</v>
+        <v>845</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>224</v>
+        <v>844</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>63</v>
@@ -45562,19 +46370,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -45582,19 +46384,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -45602,19 +46398,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -45622,19 +46412,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -45642,19 +46426,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -45662,43 +46440,27 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="5" t="s">
-        <v>615</v>
-      </c>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -45706,19 +46468,13 @@
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -45726,43 +46482,27 @@
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -45770,19 +46510,13 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -45790,41 +46524,27 @@
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="5" t="s">
-        <v>493</v>
-      </c>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -45832,19 +46552,13 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -45852,19 +46566,13 @@
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -53740,260 +54448,51 @@
       <c r="L637" s="5"/>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A638" s="5"/>
-      <c r="B638" s="5"/>
-      <c r="C638" s="5"/>
       <c r="D638" s="5"/>
-      <c r="E638" s="5"/>
-      <c r="F638" s="5"/>
-      <c r="G638" s="4"/>
-      <c r="H638" s="4"/>
-      <c r="I638" s="4"/>
-      <c r="J638" s="4"/>
-      <c r="K638" s="4"/>
-      <c r="L638" s="5"/>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A639" s="5"/>
-      <c r="B639" s="5"/>
-      <c r="C639" s="5"/>
       <c r="D639" s="5"/>
-      <c r="E639" s="5"/>
-      <c r="F639" s="5"/>
-      <c r="G639" s="4"/>
-      <c r="H639" s="4"/>
-      <c r="I639" s="4"/>
-      <c r="J639" s="4"/>
-      <c r="K639" s="4"/>
-      <c r="L639" s="5"/>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A640" s="5"/>
-      <c r="B640" s="5"/>
-      <c r="C640" s="5"/>
       <c r="D640" s="5"/>
-      <c r="E640" s="5"/>
-      <c r="F640" s="5"/>
-      <c r="G640" s="4"/>
-      <c r="H640" s="4"/>
-      <c r="I640" s="4"/>
-      <c r="J640" s="4"/>
-      <c r="K640" s="4"/>
-      <c r="L640" s="5"/>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A641" s="5"/>
-      <c r="B641" s="5"/>
-      <c r="C641" s="5"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D641" s="5"/>
-      <c r="E641" s="5"/>
-      <c r="F641" s="5"/>
-      <c r="G641" s="4"/>
-      <c r="H641" s="4"/>
-      <c r="I641" s="4"/>
-      <c r="J641" s="4"/>
-      <c r="K641" s="4"/>
-      <c r="L641" s="5"/>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A642" s="5"/>
-      <c r="B642" s="5"/>
-      <c r="C642" s="5"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D642" s="5"/>
-      <c r="E642" s="5"/>
-      <c r="F642" s="5"/>
-      <c r="G642" s="4"/>
-      <c r="H642" s="4"/>
-      <c r="I642" s="4"/>
-      <c r="J642" s="4"/>
-      <c r="K642" s="4"/>
-      <c r="L642" s="5"/>
-    </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A643" s="5"/>
-      <c r="B643" s="5"/>
-      <c r="C643" s="5"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D643" s="5"/>
-      <c r="E643" s="5"/>
-      <c r="F643" s="5"/>
-      <c r="G643" s="4"/>
-      <c r="H643" s="4"/>
-      <c r="I643" s="4"/>
-      <c r="J643" s="4"/>
-      <c r="K643" s="4"/>
-      <c r="L643" s="5"/>
-    </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A644" s="5"/>
-      <c r="B644" s="5"/>
-      <c r="C644" s="5"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D644" s="5"/>
-      <c r="E644" s="5"/>
-      <c r="F644" s="5"/>
-      <c r="G644" s="4"/>
-      <c r="H644" s="4"/>
-      <c r="I644" s="4"/>
-      <c r="J644" s="4"/>
-      <c r="K644" s="4"/>
-      <c r="L644" s="5"/>
-    </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A645" s="5"/>
-      <c r="B645" s="5"/>
-      <c r="C645" s="5"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D645" s="5"/>
-      <c r="E645" s="5"/>
-      <c r="F645" s="5"/>
-      <c r="G645" s="4"/>
-      <c r="H645" s="4"/>
-      <c r="I645" s="4"/>
-      <c r="J645" s="4"/>
-      <c r="K645" s="4"/>
-      <c r="L645" s="5"/>
-    </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A646" s="5"/>
-      <c r="B646" s="5"/>
-      <c r="C646" s="5"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D646" s="5"/>
-      <c r="E646" s="5"/>
-      <c r="F646" s="5"/>
-      <c r="G646" s="4"/>
-      <c r="H646" s="4"/>
-      <c r="I646" s="4"/>
-      <c r="J646" s="4"/>
-      <c r="K646" s="4"/>
-      <c r="L646" s="5"/>
-    </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A647" s="5"/>
-      <c r="B647" s="5"/>
-      <c r="C647" s="5"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D647" s="5"/>
-      <c r="E647" s="5"/>
-      <c r="F647" s="5"/>
-      <c r="G647" s="4"/>
-      <c r="H647" s="4"/>
-      <c r="I647" s="4"/>
-      <c r="J647" s="4"/>
-      <c r="K647" s="4"/>
-      <c r="L647" s="5"/>
-    </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A648" s="5"/>
-      <c r="B648" s="5"/>
-      <c r="C648" s="5"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D648" s="5"/>
-      <c r="E648" s="5"/>
-      <c r="F648" s="5"/>
-      <c r="G648" s="4"/>
-      <c r="H648" s="4"/>
-      <c r="I648" s="4"/>
-      <c r="J648" s="4"/>
-      <c r="K648" s="4"/>
-      <c r="L648" s="5"/>
-    </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A649" s="5"/>
-      <c r="B649" s="5"/>
-      <c r="C649" s="5"/>
-      <c r="D649" s="5"/>
-      <c r="E649" s="5"/>
-      <c r="F649" s="5"/>
-      <c r="G649" s="4"/>
-      <c r="H649" s="4"/>
-      <c r="I649" s="4"/>
-      <c r="J649" s="4"/>
-      <c r="K649" s="4"/>
-      <c r="L649" s="5"/>
-    </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A650" s="5"/>
-      <c r="B650" s="5"/>
-      <c r="C650" s="5"/>
-      <c r="D650" s="5"/>
-      <c r="E650" s="5"/>
-      <c r="F650" s="5"/>
-      <c r="G650" s="4"/>
-      <c r="H650" s="4"/>
-      <c r="I650" s="4"/>
-      <c r="J650" s="4"/>
-      <c r="K650" s="4"/>
-      <c r="L650" s="5"/>
-    </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A651" s="5"/>
-      <c r="B651" s="5"/>
-      <c r="C651" s="5"/>
-      <c r="D651" s="5"/>
-      <c r="E651" s="5"/>
-      <c r="F651" s="5"/>
-      <c r="G651" s="4"/>
-      <c r="H651" s="4"/>
-      <c r="I651" s="4"/>
-      <c r="J651" s="4"/>
-      <c r="K651" s="4"/>
-      <c r="L651" s="5"/>
-    </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A652" s="5"/>
-      <c r="B652" s="5"/>
-      <c r="C652" s="5"/>
-      <c r="D652" s="5"/>
-      <c r="E652" s="5"/>
-      <c r="F652" s="5"/>
-      <c r="G652" s="4"/>
-      <c r="H652" s="4"/>
-      <c r="I652" s="4"/>
-      <c r="J652" s="4"/>
-      <c r="K652" s="4"/>
-      <c r="L652" s="5"/>
-    </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D653" s="5"/>
-    </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D654" s="5"/>
-    </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D655" s="5"/>
-    </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D656" s="5"/>
-    </row>
-    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D657" s="5"/>
-    </row>
-    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D658" s="5"/>
-    </row>
-    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D659" s="5"/>
-    </row>
-    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D660" s="5"/>
-    </row>
-    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D661" s="5"/>
-    </row>
-    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D662" s="5"/>
-    </row>
-    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D663" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L642"/>
+  <dimension ref="A1:L630"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55143,23 +55642,19 @@
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="14" t="s">
-        <v>866</v>
-      </c>
+      <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>386</v>
+        <v>544</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>537</v>
+        <v>392</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -55167,19 +55662,21 @@
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="6"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>544</v>
+        <v>814</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>392</v>
+        <v>749</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" s="4"/>
+        <v>748</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -55187,21 +55684,19 @@
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>814</v>
+        <v>474</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>749</v>
+        <v>349</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -55209,17 +55704,17 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -55233,13 +55728,13 @@
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -55253,13 +55748,13 @@
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>64</v>
+        <v>418</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -55267,16 +55762,16 @@
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>624</v>
+        <v>396</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>623</v>
+        <v>395</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>64</v>
@@ -55293,13 +55788,13 @@
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>394</v>
+        <v>627</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>393</v>
+        <v>626</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>64</v>
+        <v>418</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -55313,13 +55808,13 @@
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>418</v>
+        <v>64</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -55333,10 +55828,10 @@
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>64</v>
@@ -55353,13 +55848,13 @@
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
       <c r="E66" s="5" t="s">
-        <v>627</v>
+        <v>456</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>626</v>
+        <v>314</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>418</v>
+        <v>64</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -55373,13 +55868,13 @@
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>454</v>
+        <v>628</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>312</v>
+        <v>815</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -55393,15 +55888,17 @@
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -55413,13 +55910,13 @@
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
       <c r="E69" s="5" t="s">
-        <v>456</v>
+        <v>631</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -55429,17 +55926,17 @@
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>387</v>
+        <v>275</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -55449,17 +55946,17 @@
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="6"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="6"/>
       <c r="E71" s="5" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -55469,17 +55966,17 @@
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="6"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>541</v>
+        <v>434</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>390</v>
+        <v>279</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -55493,15 +55990,17 @@
       <c r="C73" s="7"/>
       <c r="D73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>542</v>
+        <v>816</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>391</v>
+        <v>817</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -55513,13 +56012,13 @@
       <c r="C74" s="7"/>
       <c r="D74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>628</v>
+        <v>410</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>815</v>
+        <v>409</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -55529,17 +56028,17 @@
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="6"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="7"/>
       <c r="D75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>633</v>
+        <v>504</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -55549,21 +56048,19 @@
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="6"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>502</v>
+        <v>321</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -55571,17 +56068,17 @@
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5" t="s">
-        <v>631</v>
+        <v>506</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -55595,10 +56092,10 @@
       <c r="C78" s="7"/>
       <c r="D78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>61</v>
@@ -55615,10 +56112,10 @@
       <c r="C79" s="7"/>
       <c r="D79" s="6"/>
       <c r="E79" s="5" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>61</v>
@@ -55631,17 +56128,17 @@
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -55651,21 +56148,19 @@
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>816</v>
+        <v>464</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>817</v>
+        <v>322</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -55673,17 +56168,17 @@
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>410</v>
+        <v>819</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>409</v>
+        <v>818</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -55693,17 +56188,17 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
-      <c r="B83" s="13"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -55717,13 +56212,13 @@
       <c r="C84" s="7"/>
       <c r="D84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -55737,10 +56232,10 @@
       <c r="C85" s="7"/>
       <c r="D85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>506</v>
+        <v>423</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>61</v>
@@ -55753,17 +56248,17 @@
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>272</v>
+        <v>551</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -55773,19 +56268,21 @@
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H87" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -55797,15 +56294,17 @@
       <c r="C88" s="7"/>
       <c r="D88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H88" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -55817,10 +56316,10 @@
       <c r="C89" s="7"/>
       <c r="D89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>67</v>
@@ -55833,17 +56332,17 @@
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -55853,17 +56352,17 @@
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6"/>
       <c r="E91" s="5" t="s">
-        <v>819</v>
+        <v>426</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>818</v>
+        <v>283</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -55873,17 +56372,17 @@
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -55893,14 +56392,14 @@
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="6"/>
       <c r="E93" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>61</v>
@@ -55913,14 +56412,14 @@
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="6"/>
       <c r="E94" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>61</v>
@@ -55937,13 +56436,13 @@
       <c r="C95" s="7"/>
       <c r="D95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>551</v>
+        <v>282</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -55957,17 +56456,15 @@
       <c r="C96" s="7"/>
       <c r="D96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -55979,17 +56476,15 @@
       <c r="C97" s="7"/>
       <c r="D97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>473</v>
+        <v>412</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -56001,13 +56496,13 @@
       <c r="C98" s="7"/>
       <c r="D98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>432</v>
+        <v>630</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>292</v>
+        <v>629</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -56021,13 +56516,13 @@
       <c r="C99" s="7"/>
       <c r="D99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>433</v>
+        <v>632</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -56041,13 +56536,13 @@
       <c r="C100" s="7"/>
       <c r="D100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -56061,13 +56556,13 @@
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -56081,10 +56576,10 @@
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>61</v>
@@ -56101,13 +56596,13 @@
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -56121,15 +56616,17 @@
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
       <c r="E104" s="5" t="s">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>282</v>
+        <v>751</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H104" s="4"/>
+        <v>748</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -56137,19 +56634,21 @@
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>430</v>
+        <v>909</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>289</v>
+        <v>908</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H105" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -56161,15 +56660,17 @@
       <c r="C106" s="7"/>
       <c r="D106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>411</v>
+        <v>590</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -56181,13 +56682,13 @@
       <c r="C107" s="7"/>
       <c r="D107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>630</v>
+        <v>516</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>629</v>
+        <v>332</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -56201,13 +56702,13 @@
       <c r="C108" s="7"/>
       <c r="D108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>632</v>
+        <v>515</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -56221,16 +56722,20 @@
       <c r="C109" s="7"/>
       <c r="D109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>287</v>
+        <v>759</v>
       </c>
       <c r="G109" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="I109" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="5"/>
@@ -56241,15 +56746,17 @@
       <c r="C110" s="7"/>
       <c r="D110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>291</v>
+        <v>501</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H110" s="4"/>
+        <v>477</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -56261,13 +56768,13 @@
       <c r="C111" s="7"/>
       <c r="D111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -56281,13 +56788,13 @@
       <c r="C112" s="7"/>
       <c r="D112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>429</v>
+        <v>540</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -56301,17 +56808,15 @@
       <c r="C113" s="7"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5" t="s">
-        <v>750</v>
+        <v>449</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>751</v>
+        <v>334</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -56319,20 +56824,20 @@
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="18"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>909</v>
+        <v>513</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>908</v>
+        <v>512</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>697</v>
+        <v>477</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -56345,16 +56850,16 @@
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
       <c r="E115" s="5" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -56363,17 +56868,17 @@
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="6"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="5" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>332</v>
+        <v>553</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -56383,19 +56888,21 @@
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="18"/>
       <c r="D117" s="6"/>
       <c r="E117" s="5" t="s">
-        <v>515</v>
+        <v>913</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>333</v>
+        <v>912</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H117" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -56407,17 +56914,15 @@
       <c r="C118" s="7"/>
       <c r="D118" s="6"/>
       <c r="E118" s="5" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>420</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -56429,40 +56934,36 @@
       <c r="C119" s="7"/>
       <c r="D119" s="6"/>
       <c r="E119" s="5" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I119" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="5"/>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="18"/>
       <c r="D120" s="6"/>
       <c r="E120" s="5" t="s">
-        <v>538</v>
+        <v>911</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>501</v>
+        <v>910</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>477</v>
+        <v>697</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -56475,13 +56976,13 @@
       <c r="C121" s="7"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -56495,10 +56996,10 @@
       <c r="C122" s="7"/>
       <c r="D122" s="6"/>
       <c r="E122" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>63</v>
@@ -56515,13 +57016,13 @@
       <c r="C123" s="7"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -56535,13 +57036,13 @@
       <c r="C124" s="7"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>820</v>
+        <v>313</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>477</v>
+        <v>64</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -56555,17 +57056,15 @@
       <c r="C125" s="7"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>512</v>
+        <v>329</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H125" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -56577,17 +57076,15 @@
       <c r="C126" s="7"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>634</v>
+        <v>309</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -56595,17 +57092,17 @@
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="5" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>553</v>
+        <v>328</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -56615,21 +57112,19 @@
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="18"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="6"/>
       <c r="E128" s="5" t="s">
-        <v>913</v>
+        <v>468</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>912</v>
+        <v>327</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -56641,10 +57136,10 @@
       <c r="C129" s="7"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5" t="s">
-        <v>560</v>
+        <v>467</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>63</v>
@@ -56655,16 +57150,16 @@
       <c r="K129" s="4"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="6"/>
       <c r="E130" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>63</v>
@@ -56675,38 +57170,36 @@
       <c r="K130" s="4"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="18"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="6"/>
       <c r="E131" s="5" t="s">
-        <v>911</v>
+        <v>466</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>910</v>
+        <v>325</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="6"/>
       <c r="E132" s="5" t="s">
-        <v>548</v>
+        <v>437</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>61</v>
@@ -56717,19 +57210,19 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="6"/>
       <c r="E133" s="5" t="s">
-        <v>543</v>
+        <v>436</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
@@ -56743,13 +57236,13 @@
       <c r="C134" s="7"/>
       <c r="D134" s="6"/>
       <c r="E134" s="5" t="s">
-        <v>450</v>
+        <v>789</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>308</v>
+        <v>788</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -56757,19 +57250,19 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="6"/>
       <c r="E135" s="5" t="s">
-        <v>455</v>
+        <v>822</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>313</v>
+        <v>821</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -56777,16 +57270,16 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="6"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="5" t="s">
-        <v>470</v>
+        <v>824</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>329</v>
+        <v>823</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>63</v>
@@ -56797,19 +57290,19 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="6"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
       <c r="E137" s="5" t="s">
-        <v>451</v>
+        <v>826</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>309</v>
+        <v>825</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>61</v>
+        <v>697</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -56817,19 +57310,19 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="6"/>
       <c r="E138" s="5" t="s">
-        <v>469</v>
+        <v>829</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>328</v>
+        <v>827</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>63</v>
+        <v>828</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -56837,19 +57330,19 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="6"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5" t="s">
-        <v>468</v>
+        <v>858</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>327</v>
+        <v>857</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>63</v>
+        <v>758</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -56857,19 +57350,19 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="6"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5" t="s">
-        <v>467</v>
+        <v>870</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>326</v>
+        <v>868</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>63</v>
+        <v>869</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -56877,44 +57370,28 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
+      <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -56922,19 +57399,13 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+      <c r="A143" s="6"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
+      <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -56942,19 +57413,13 @@
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+      <c r="A144" s="6"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
+      <c r="C144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -56962,39 +57427,27 @@
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+      <c r="A145" s="6"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
+      <c r="C145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>697</v>
-      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -57002,19 +57455,13 @@
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="A147" s="6"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -57022,19 +57469,13 @@
       <c r="L147" s="5"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -57042,19 +57483,13 @@
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>697</v>
-      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -57062,19 +57497,13 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+      <c r="A150" s="6"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
+      <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>828</v>
-      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -57082,19 +57511,13 @@
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>758</v>
-      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -57102,19 +57525,13 @@
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>869</v>
-      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -57654,10 +58071,10 @@
       <c r="L190" s="5"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="4"/>
@@ -57668,10 +58085,10 @@
       <c r="L191" s="5"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="4"/>
@@ -57682,10 +58099,10 @@
       <c r="L192" s="5"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="4"/>
@@ -57696,10 +58113,10 @@
       <c r="L193" s="5"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="4"/>
@@ -57710,10 +58127,10 @@
       <c r="L194" s="5"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="4"/>
@@ -57724,10 +58141,10 @@
       <c r="L195" s="5"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="4"/>
@@ -57738,10 +58155,10 @@
       <c r="L196" s="5"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="4"/>
@@ -57752,10 +58169,10 @@
       <c r="L197" s="5"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="4"/>
@@ -57766,10 +58183,10 @@
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="4"/>
@@ -57780,10 +58197,10 @@
       <c r="L199" s="5"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="4"/>
@@ -57794,10 +58211,10 @@
       <c r="L200" s="5"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="4"/>
@@ -57808,10 +58225,10 @@
       <c r="L201" s="5"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="4"/>
@@ -63812,174 +64229,6 @@
       <c r="J630" s="4"/>
       <c r="K630" s="4"/>
       <c r="L630" s="5"/>
-    </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A631" s="5"/>
-      <c r="B631" s="5"/>
-      <c r="C631" s="5"/>
-      <c r="D631" s="5"/>
-      <c r="E631" s="5"/>
-      <c r="F631" s="5"/>
-      <c r="G631" s="4"/>
-      <c r="H631" s="4"/>
-      <c r="I631" s="4"/>
-      <c r="J631" s="4"/>
-      <c r="K631" s="4"/>
-      <c r="L631" s="5"/>
-    </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A632" s="5"/>
-      <c r="B632" s="5"/>
-      <c r="C632" s="5"/>
-      <c r="D632" s="5"/>
-      <c r="E632" s="5"/>
-      <c r="F632" s="5"/>
-      <c r="G632" s="4"/>
-      <c r="H632" s="4"/>
-      <c r="I632" s="4"/>
-      <c r="J632" s="4"/>
-      <c r="K632" s="4"/>
-      <c r="L632" s="5"/>
-    </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A633" s="5"/>
-      <c r="B633" s="5"/>
-      <c r="C633" s="5"/>
-      <c r="D633" s="5"/>
-      <c r="E633" s="5"/>
-      <c r="F633" s="5"/>
-      <c r="G633" s="4"/>
-      <c r="H633" s="4"/>
-      <c r="I633" s="4"/>
-      <c r="J633" s="4"/>
-      <c r="K633" s="4"/>
-      <c r="L633" s="5"/>
-    </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A634" s="5"/>
-      <c r="B634" s="5"/>
-      <c r="C634" s="5"/>
-      <c r="D634" s="5"/>
-      <c r="E634" s="5"/>
-      <c r="F634" s="5"/>
-      <c r="G634" s="4"/>
-      <c r="H634" s="4"/>
-      <c r="I634" s="4"/>
-      <c r="J634" s="4"/>
-      <c r="K634" s="4"/>
-      <c r="L634" s="5"/>
-    </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A635" s="5"/>
-      <c r="B635" s="5"/>
-      <c r="C635" s="5"/>
-      <c r="D635" s="5"/>
-      <c r="E635" s="5"/>
-      <c r="F635" s="5"/>
-      <c r="G635" s="4"/>
-      <c r="H635" s="4"/>
-      <c r="I635" s="4"/>
-      <c r="J635" s="4"/>
-      <c r="K635" s="4"/>
-      <c r="L635" s="5"/>
-    </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A636" s="5"/>
-      <c r="B636" s="5"/>
-      <c r="C636" s="5"/>
-      <c r="D636" s="5"/>
-      <c r="E636" s="5"/>
-      <c r="F636" s="5"/>
-      <c r="G636" s="4"/>
-      <c r="H636" s="4"/>
-      <c r="I636" s="4"/>
-      <c r="J636" s="4"/>
-      <c r="K636" s="4"/>
-      <c r="L636" s="5"/>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A637" s="5"/>
-      <c r="B637" s="5"/>
-      <c r="C637" s="5"/>
-      <c r="D637" s="5"/>
-      <c r="E637" s="5"/>
-      <c r="F637" s="5"/>
-      <c r="G637" s="4"/>
-      <c r="H637" s="4"/>
-      <c r="I637" s="4"/>
-      <c r="J637" s="4"/>
-      <c r="K637" s="4"/>
-      <c r="L637" s="5"/>
-    </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A638" s="5"/>
-      <c r="B638" s="5"/>
-      <c r="C638" s="5"/>
-      <c r="D638" s="5"/>
-      <c r="E638" s="5"/>
-      <c r="F638" s="5"/>
-      <c r="G638" s="4"/>
-      <c r="H638" s="4"/>
-      <c r="I638" s="4"/>
-      <c r="J638" s="4"/>
-      <c r="K638" s="4"/>
-      <c r="L638" s="5"/>
-    </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A639" s="5"/>
-      <c r="B639" s="5"/>
-      <c r="C639" s="5"/>
-      <c r="D639" s="5"/>
-      <c r="E639" s="5"/>
-      <c r="F639" s="5"/>
-      <c r="G639" s="4"/>
-      <c r="H639" s="4"/>
-      <c r="I639" s="4"/>
-      <c r="J639" s="4"/>
-      <c r="K639" s="4"/>
-      <c r="L639" s="5"/>
-    </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A640" s="5"/>
-      <c r="B640" s="5"/>
-      <c r="C640" s="5"/>
-      <c r="D640" s="5"/>
-      <c r="E640" s="5"/>
-      <c r="F640" s="5"/>
-      <c r="G640" s="4"/>
-      <c r="H640" s="4"/>
-      <c r="I640" s="4"/>
-      <c r="J640" s="4"/>
-      <c r="K640" s="4"/>
-      <c r="L640" s="5"/>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A641" s="5"/>
-      <c r="B641" s="5"/>
-      <c r="C641" s="5"/>
-      <c r="D641" s="5"/>
-      <c r="E641" s="5"/>
-      <c r="F641" s="5"/>
-      <c r="G641" s="4"/>
-      <c r="H641" s="4"/>
-      <c r="I641" s="4"/>
-      <c r="J641" s="4"/>
-      <c r="K641" s="4"/>
-      <c r="L641" s="5"/>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A642" s="5"/>
-      <c r="B642" s="5"/>
-      <c r="C642" s="5"/>
-      <c r="D642" s="5"/>
-      <c r="E642" s="5"/>
-      <c r="F642" s="5"/>
-      <c r="G642" s="4"/>
-      <c r="H642" s="4"/>
-      <c r="I642" s="4"/>
-      <c r="J642" s="4"/>
-      <c r="K642" s="4"/>
-      <c r="L642" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeepFeatureChecklist.xlsx
+++ b/KeepFeatureChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Full List Per Mod'!$A$1:$B$409</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$204</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Traps!$A$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Weapons!$A$2:$L$2</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="992">
   <si>
     <t>KEEP - ENEMIES TO INCLUDE</t>
   </si>
@@ -2918,6 +2918,108 @@
   </si>
   <si>
     <t>Sanguinators</t>
+  </si>
+  <si>
+    <t>Balrog</t>
+  </si>
+  <si>
+    <t>monster_balrog</t>
+  </si>
+  <si>
+    <t>Zerstörer</t>
+  </si>
+  <si>
+    <t>monster_zerstorer</t>
+  </si>
+  <si>
+    <t>Crossbow Swordsman</t>
+  </si>
+  <si>
+    <t>monster_kcrossbow</t>
+  </si>
+  <si>
+    <t>Model by madfox</t>
+  </si>
+  <si>
+    <t>Ogre Crossbow</t>
+  </si>
+  <si>
+    <t>monster_ogre_crossbow</t>
+  </si>
+  <si>
+    <t>monster_frog</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>env_lightning</t>
+  </si>
+  <si>
+    <t>Made by madfox</t>
+  </si>
+  <si>
+    <t>Sky Lightning Sprite</t>
+  </si>
+  <si>
+    <t>misc_raincloud</t>
+  </si>
+  <si>
+    <t>Rain Cloud</t>
+  </si>
+  <si>
+    <t>info_player_startdev</t>
+  </si>
+  <si>
+    <t>Developer Spawn Point</t>
+  </si>
+  <si>
+    <t>info_skyroom</t>
+  </si>
+  <si>
+    <t>QSS/FTE 3D Skybox Skyroom</t>
+  </si>
+  <si>
+    <t>ambient_lavagurg</t>
+  </si>
+  <si>
+    <t>Travail</t>
+  </si>
+  <si>
+    <t>ambient_generalpurpose</t>
+  </si>
+  <si>
+    <t>monster_ogre_mhorbo</t>
+  </si>
+  <si>
+    <t>monster_justice</t>
+  </si>
+  <si>
+    <t>Sword of Justice</t>
+  </si>
+  <si>
+    <t>monster_judicator</t>
+  </si>
+  <si>
+    <t>Judicator</t>
+  </si>
+  <si>
+    <t>Adds 500 health for every added wave to bosswavetotal</t>
+  </si>
+  <si>
+    <t>monster_sweeper</t>
+  </si>
+  <si>
+    <t>Sweeper</t>
+  </si>
+  <si>
+    <t>monster_deflector</t>
+  </si>
+  <si>
+    <t>Deflector</t>
+  </si>
+  <si>
+    <t>monster_megaforce</t>
   </si>
 </sst>
 </file>
@@ -3318,11 +3420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N699"/>
+  <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,21 +3768,21 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>796</v>
+        <v>958</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>795</v>
+        <v>959</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
-        <v>697</v>
+        <v>65</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3689,19 +3791,17 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>735</v>
+        <v>796</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="H15" s="5">
-        <v>500</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4" t="s">
         <v>697</v>
@@ -3718,13 +3818,13 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>734</v>
       </c>
       <c r="H16" s="5">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4" t="s">
@@ -3742,13 +3842,13 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>734</v>
       </c>
       <c r="H17" s="5">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4" t="s">
@@ -3766,13 +3866,13 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>734</v>
       </c>
       <c r="H18" s="5">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4" t="s">
@@ -3790,13 +3890,13 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>734</v>
       </c>
       <c r="H19" s="5">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4" t="s">
@@ -3814,19 +3914,17 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="5" t="s">
-        <v>666</v>
+        <v>739</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>667</v>
+        <v>734</v>
       </c>
       <c r="H20" s="5">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="5">
-        <v>2000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -3840,15 +3938,17 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H21" s="5">
-        <v>40</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>1200</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2000</v>
+      </c>
       <c r="J21" s="4" t="s">
         <v>63</v>
       </c>
@@ -3859,22 +3959,22 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>671</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>13</v>
+        <v>670</v>
       </c>
       <c r="H22" s="5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -3888,71 +3988,71 @@
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="5" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H23" s="5">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="5" t="s">
-        <v>787</v>
+        <v>133</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="H24" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="H24" s="5">
+        <v>120</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="K24" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>797</v>
+        <v>962</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="H25" s="5">
-        <v>4500</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4" t="s">
-        <v>697</v>
+        <v>65</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="5" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3960,19 +4060,17 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>201</v>
+        <v>787</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="5">
-        <v>75</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -3984,43 +4082,45 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>145</v>
+        <v>797</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>142</v>
+        <v>925</v>
       </c>
       <c r="H27" s="5">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="4" t="s">
-        <v>67</v>
+        <v>697</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="5" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="H28" s="5">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -4029,26 +4129,24 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="5" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="H29" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
@@ -4060,17 +4158,17 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="H30" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -4084,19 +4182,21 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H31" s="5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
@@ -4106,15 +4206,15 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="5" t="s">
-        <v>145</v>
+        <v>990</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>143</v>
+        <v>989</v>
       </c>
       <c r="H32" s="5">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="4" t="s">
@@ -4127,22 +4227,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H33" s="5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -4156,17 +4256,17 @@
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H34" s="5">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -4175,54 +4275,48 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="H35" s="5">
-        <v>4000</v>
+        <v>30</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="5" t="s">
-        <v>656</v>
-      </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
       <c r="F36" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H36" s="5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5"/>
@@ -4234,17 +4328,17 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
       <c r="F37" s="5" t="s">
-        <v>657</v>
+        <v>11</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="H37" s="5">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -4258,43 +4352,49 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38" s="5">
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="5" t="s">
-        <v>676</v>
+        <v>111</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>675</v>
+        <v>38</v>
       </c>
       <c r="H39" s="5">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="5"/>
@@ -4306,43 +4406,41 @@
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="5" t="s">
-        <v>122</v>
+        <v>657</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H40" s="5">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H41" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4356,17 +4454,17 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>16</v>
+        <v>675</v>
       </c>
       <c r="H42" s="5">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4" t="s">
-        <v>693</v>
+        <v>63</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -4378,21 +4476,23 @@
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>695</v>
+        <v>122</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H43" s="5">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="K43" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="5"/>
@@ -4402,52 +4502,48 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>785</v>
+        <v>83</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>784</v>
+        <v>16</v>
       </c>
       <c r="H44" s="5">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
-        <v>917</v>
+        <v>61</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="5" t="s">
-        <v>916</v>
-      </c>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="5" t="s">
-        <v>785</v>
+        <v>694</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>928</v>
+        <v>16</v>
       </c>
       <c r="H45" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="4" t="s">
-        <v>917</v>
+        <v>693</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="5" t="s">
-        <v>916</v>
-      </c>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
@@ -4456,17 +4552,17 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
-        <v>9</v>
+        <v>695</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H46" s="5">
-        <v>50000</v>
+        <v>400</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="4" t="s">
-        <v>63</v>
+        <v>693</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -4478,51 +4574,51 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>96</v>
+        <v>785</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>17</v>
+        <v>784</v>
       </c>
       <c r="H47" s="5">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="4" t="s">
-        <v>61</v>
+        <v>917</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>661</v>
+        <v>785</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>660</v>
+        <v>928</v>
       </c>
       <c r="H48" s="5">
         <v>500</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="5" t="s">
-        <v>662</v>
+        <v>916</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4532,13 +4628,13 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>637</v>
+        <v>50</v>
       </c>
       <c r="H49" s="5">
-        <v>120</v>
+        <v>50000</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="4" t="s">
@@ -4551,57 +4647,55 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H50" s="5">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="5" t="s">
-        <v>803</v>
+        <v>661</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>804</v>
+        <v>660</v>
       </c>
       <c r="H51" s="5">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="4" t="s">
-        <v>559</v>
+        <v>67</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -4610,13 +4704,13 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>51</v>
+        <v>637</v>
       </c>
       <c r="H52" s="5">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="4" t="s">
@@ -4629,48 +4723,54 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H53" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K53" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>41</v>
+        <v>804</v>
       </c>
       <c r="H54" s="5">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K54" s="4"/>
+        <v>559</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5"/>
@@ -4680,19 +4780,19 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="5" t="s">
-        <v>783</v>
+        <v>127</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>781</v>
+        <v>51</v>
       </c>
       <c r="H55" s="5">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -4706,49 +4806,41 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>659</v>
+        <v>26</v>
       </c>
       <c r="H56" s="5">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>116</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="H57" s="5">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -4762,13 +4854,13 @@
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H58" s="5">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="4" t="s">
@@ -4784,25 +4876,31 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="5" t="s">
-        <v>800</v>
+        <v>105</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>799</v>
+        <v>659</v>
       </c>
       <c r="H59" s="5">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="N59" s="5" t="s">
-        <v>926</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4812,19 +4910,17 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="5" t="s">
-        <v>652</v>
+        <v>120</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H60" s="5">
-        <v>200</v>
-      </c>
-      <c r="I60" s="5">
-        <v>250</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -4836,21 +4932,19 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>653</v>
+        <v>782</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>53</v>
+        <v>780</v>
       </c>
       <c r="H61" s="5">
-        <v>300</v>
-      </c>
-      <c r="I61" s="5">
-        <v>350</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="I61" s="5"/>
       <c r="J61" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -4862,54 +4956,52 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>54</v>
+        <v>799</v>
       </c>
       <c r="H62" s="5">
-        <v>200</v>
-      </c>
-      <c r="I62" s="5">
-        <v>250</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="I62" s="5"/>
       <c r="J62" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="5" t="s">
-        <v>929</v>
+        <v>652</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="H63" s="5">
+        <v>200</v>
+      </c>
+      <c r="I63" s="5">
+        <v>250</v>
+      </c>
       <c r="J63" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>931</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="5" t="s">
-        <v>932</v>
-      </c>
+      <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
@@ -4918,15 +5010,17 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="5" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>678</v>
+        <v>53</v>
       </c>
       <c r="H64" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I64" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="I64" s="5">
+        <v>350</v>
+      </c>
       <c r="J64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4937,29 +5031,29 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="5" t="s">
-        <v>118</v>
+        <v>654</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>649</v>
+        <v>54</v>
       </c>
       <c r="H65" s="5">
-        <v>80</v>
-      </c>
-      <c r="I65" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="I65" s="5">
+        <v>250</v>
+      </c>
       <c r="J65" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
@@ -4968,24 +5062,26 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="5" t="s">
-        <v>128</v>
+        <v>929</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="H66" s="5">
-        <v>150</v>
-      </c>
-      <c r="I66" s="5">
-        <v>75</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+        <v>917</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>931</v>
+      </c>
       <c r="M66" s="4"/>
-      <c r="N66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -4994,30 +5090,22 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="5" t="s">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>18</v>
+        <v>678</v>
       </c>
       <c r="H67" s="5">
-        <v>75</v>
+        <v>50000</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M67" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -5026,22 +5114,24 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>30</v>
+        <v>649</v>
       </c>
       <c r="H68" s="5">
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="5"/>
+      <c r="N68" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
@@ -5050,15 +5140,17 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="5" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>55</v>
+        <v>650</v>
       </c>
       <c r="H69" s="5">
-        <v>30</v>
-      </c>
-      <c r="I69" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="I69" s="5">
+        <v>75</v>
+      </c>
       <c r="J69" s="4" t="s">
         <v>63</v>
       </c>
@@ -5069,27 +5161,29 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="5" t="s">
-        <v>922</v>
+        <v>985</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="H70" s="5">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="5"/>
+      <c r="N70" s="5" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -5098,53 +5192,53 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="5" t="s">
-        <v>129</v>
+        <v>983</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>725</v>
+        <v>982</v>
       </c>
       <c r="H71" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="L71" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="5" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H72" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I72" s="5">
-        <v>200</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="L72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="N72" s="5" t="s">
-        <v>647</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5154,17 +5248,15 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H73" s="5">
-        <v>500</v>
-      </c>
-      <c r="I73" s="5">
-        <v>1000</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="I73" s="5"/>
       <c r="J73" s="4" t="s">
         <v>62</v>
       </c>
@@ -5175,20 +5267,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="6"/>
       <c r="F74" s="5" t="s">
-        <v>778</v>
+        <v>206</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="H74" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="H74" s="5">
+        <v>30</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5197,17 +5291,19 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="5" t="s">
-        <v>777</v>
+        <v>922</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="H75" s="5"/>
+        <v>921</v>
+      </c>
+      <c r="H75" s="5">
+        <v>400</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="4" t="s">
         <v>697</v>
@@ -5219,20 +5315,22 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="5" t="s">
-        <v>779</v>
+        <v>694</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="H76" s="5"/>
+        <v>991</v>
+      </c>
+      <c r="H76" s="5">
+        <v>400</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5241,55 +5339,59 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="6"/>
       <c r="F77" s="5" t="s">
-        <v>731</v>
+        <v>129</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H77" s="5">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="4" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="L77" s="4"/>
+      <c r="L77" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M77" s="4"/>
       <c r="N77" s="5"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="7"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="5" t="s">
-        <v>742</v>
+        <v>144</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>743</v>
+        <v>31</v>
       </c>
       <c r="H78" s="5">
-        <v>600</v>
-      </c>
-      <c r="I78" s="5"/>
+        <v>2000</v>
+      </c>
+      <c r="I78" s="5">
+        <v>200</v>
+      </c>
       <c r="J78" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>697</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="5"/>
+      <c r="N78" s="5" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
@@ -5298,17 +5400,19 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="5" t="s">
-        <v>674</v>
+        <v>92</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>673</v>
+        <v>32</v>
       </c>
       <c r="H79" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I79" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1000</v>
+      </c>
       <c r="J79" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -5317,162 +5421,140 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="6"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
-        <v>901</v>
+        <v>778</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="H80" s="5">
-        <v>80</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="4" t="s">
-        <v>65</v>
+        <v>697</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="5" t="s">
-        <v>900</v>
-      </c>
+      <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
-        <v>85</v>
+        <v>777</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H81" s="5">
-        <v>200</v>
-      </c>
-      <c r="I81" s="5">
-        <v>250</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="5" t="s">
-        <v>645</v>
-      </c>
+      <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="5" t="s">
-        <v>644</v>
+        <v>779</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="H82" s="5">
-        <v>200</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>642</v>
+        <v>731</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>138</v>
+        <v>728</v>
       </c>
       <c r="H83" s="5">
-        <v>200</v>
-      </c>
-      <c r="I83" s="5">
-        <v>250</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="I83" s="5"/>
       <c r="J83" s="4" t="s">
-        <v>66</v>
+        <v>420</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="5" t="s">
-        <v>646</v>
-      </c>
+      <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>110</v>
+        <v>742</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>19</v>
+        <v>743</v>
       </c>
       <c r="H84" s="5">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K84" s="4"/>
+        <v>559</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="5"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="5" t="s">
-        <v>855</v>
+        <v>674</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>856</v>
+        <v>673</v>
       </c>
       <c r="H85" s="5">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -5481,80 +5563,84 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="5" t="s">
-        <v>140</v>
+        <v>901</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>141</v>
+        <v>899</v>
       </c>
       <c r="H86" s="5">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
-      <c r="N86" s="5"/>
+      <c r="N86" s="5" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="5" t="s">
-        <v>809</v>
+        <v>85</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>810</v>
+        <v>107</v>
       </c>
       <c r="H87" s="5">
-        <v>100</v>
-      </c>
-      <c r="I87" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="I87" s="5">
+        <v>250</v>
+      </c>
       <c r="J87" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L87" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="5"/>
+      <c r="N87" s="5" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>130</v>
+        <v>965</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="H88" s="5">
-        <v>100</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="5" t="s">
-        <v>594</v>
+        <v>964</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5564,76 +5650,80 @@
       <c r="D89" s="6"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="H89" s="5">
-        <v>80</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="4" t="s">
-        <v>697</v>
+        <v>65</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="5"/>
+      <c r="N89" s="5" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="B90" s="5"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="6"/>
       <c r="F90" s="5" t="s">
-        <v>91</v>
+        <v>644</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>732</v>
+        <v>643</v>
       </c>
       <c r="H90" s="5">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="4" t="s">
-        <v>559</v>
+        <v>62</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>697</v>
+        <v>65</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="6"/>
       <c r="F91" s="5" t="s">
-        <v>741</v>
+        <v>642</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>733</v>
+        <v>138</v>
       </c>
       <c r="H91" s="5">
-        <v>3000</v>
-      </c>
-      <c r="I91" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="I91" s="5">
+        <v>250</v>
+      </c>
       <c r="J91" s="4" t="s">
-        <v>559</v>
+        <v>66</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="L91" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="M91" s="4"/>
-      <c r="N91" s="5"/>
+      <c r="N91" s="5" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
@@ -5642,19 +5732,17 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="5" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H92" s="5">
-        <v>80</v>
-      </c>
-      <c r="I92" s="5">
-        <v>120</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="I92" s="5"/>
       <c r="J92" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -5663,31 +5751,27 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="5" t="s">
-        <v>139</v>
+        <v>855</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>27</v>
+        <v>856</v>
       </c>
       <c r="H93" s="5">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K93" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="5" t="s">
-        <v>595</v>
-      </c>
+      <c r="N93" s="5"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
@@ -5696,54 +5780,46 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="5" t="s">
-        <v>663</v>
+        <v>140</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>664</v>
+        <v>141</v>
       </c>
       <c r="H94" s="5">
-        <v>500</v>
-      </c>
-      <c r="I94" s="5">
-        <v>400</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I94" s="5"/>
       <c r="J94" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="N94" s="5"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="5" t="s">
-        <v>109</v>
+        <v>968</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="5">
-        <v>400</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="5"/>
+      <c r="N95" s="5" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
@@ -5752,17 +5828,17 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5" t="s">
-        <v>86</v>
+        <v>809</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>21</v>
+        <v>810</v>
       </c>
       <c r="H96" s="5">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -5771,43 +5847,53 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="5" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="H97" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="5"/>
+      <c r="N97" s="5" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>754</v>
+        <v>923</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="H98" s="5"/>
+        <v>924</v>
+      </c>
+      <c r="H98" s="5">
+        <v>80</v>
+      </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="4"/>
+      <c r="J98" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -5815,78 +5901,78 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="7"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>36</v>
+        <v>732</v>
       </c>
       <c r="H99" s="5">
-        <v>30</v>
-      </c>
-      <c r="I99" s="5">
-        <v>75</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="I99" s="5"/>
       <c r="J99" s="4" t="s">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
-      <c r="N99" s="5"/>
+      <c r="N99" s="5" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="7"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>90</v>
+        <v>741</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>375</v>
+        <v>733</v>
       </c>
       <c r="H100" s="5">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="4" t="s">
-        <v>64</v>
+        <v>559</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>65</v>
+        <v>697</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="5"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="5" t="s">
-        <v>727</v>
+        <v>131</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>726</v>
+        <v>56</v>
       </c>
       <c r="H101" s="5">
-        <v>350</v>
-      </c>
-      <c r="I101" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I101" s="5">
+        <v>120</v>
+      </c>
       <c r="J101" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -5897,25 +5983,29 @@
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="6"/>
       <c r="F102" s="5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H102" s="5">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K102" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
-      <c r="N102" s="5"/>
+      <c r="N102" s="5" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
@@ -5924,26 +6014,28 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H103" s="5">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I103" s="5">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>63</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
-      <c r="N103" s="5"/>
+      <c r="N103" s="5" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
@@ -5952,173 +6044,169 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H104" s="5">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K104" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="5"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="6"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="5" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H105" s="5">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="5"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="5" t="s">
-        <v>639</v>
+        <v>207</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>641</v>
+        <v>57</v>
       </c>
       <c r="H106" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="N106" s="5"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="5"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="5" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="H107" s="5">
-        <v>1600</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="H107" s="5"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>697</v>
-      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="5"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="5" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="H108" s="5">
-        <v>3000</v>
-      </c>
-      <c r="I108" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I108" s="5">
+        <v>75</v>
+      </c>
       <c r="J108" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K108" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="5"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="5" t="s">
-        <v>756</v>
+        <v>90</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>757</v>
+        <v>375</v>
       </c>
       <c r="H109" s="5">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="K109" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="5"/>
+      <c r="N109" s="5" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="7"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>918</v>
+        <v>727</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>920</v>
+        <v>726</v>
       </c>
       <c r="H110" s="5">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>697</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="5"/>
@@ -6130,21 +6218,19 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H111" s="5">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="5"/>
@@ -6156,28 +6242,22 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5" t="s">
-        <v>106</v>
+        <v>988</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>23</v>
+        <v>987</v>
       </c>
       <c r="H112" s="5">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K112" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L112" s="4" t="s">
-        <v>559</v>
-      </c>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="5" t="s">
-        <v>655</v>
-      </c>
+      <c r="N112" s="5"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
@@ -6186,19 +6266,23 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="5" t="s">
-        <v>132</v>
+        <v>669</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>58</v>
+        <v>668</v>
       </c>
       <c r="H113" s="5">
-        <v>350</v>
-      </c>
-      <c r="I113" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I113" s="5">
+        <v>60</v>
+      </c>
       <c r="J113" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
@@ -6210,13 +6294,13 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="5" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114" s="5">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="4" t="s">
@@ -6229,20 +6313,26 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="5" t="s">
-        <v>752</v>
+        <v>108</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="H115" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H115" s="5">
+        <v>80</v>
+      </c>
       <c r="I115" s="5"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
+      <c r="J115" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="5"/>
@@ -6254,49 +6344,49 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="5" t="s">
-        <v>87</v>
+        <v>639</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>24</v>
+        <v>641</v>
       </c>
       <c r="H116" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L116" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M116" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N116" s="5"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
+      <c r="B117" s="5"/>
       <c r="C117" s="7"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
+      <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
-        <v>208</v>
+        <v>730</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>59</v>
+        <v>729</v>
       </c>
       <c r="H117" s="5">
-        <v>60</v>
+        <v>1600</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K117" s="4"/>
+        <v>420</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="5"/>
@@ -6308,21 +6398,19 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="5" t="s">
-        <v>672</v>
+        <v>136</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>640</v>
+        <v>137</v>
       </c>
       <c r="H118" s="5">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="5"/>
@@ -6332,117 +6420,167 @@
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="5" t="s">
-        <v>808</v>
+        <v>756</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="H119" s="5">
-        <v>200</v>
-      </c>
-      <c r="I119" s="5">
-        <v>75</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="I119" s="5"/>
       <c r="J119" s="4" t="s">
-        <v>68</v>
+        <v>758</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="5" t="s">
-        <v>807</v>
-      </c>
+      <c r="N119" s="5"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="H120" s="5">
+        <v>400</v>
+      </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
+      <c r="J120" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="5"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" s="5">
+        <v>30</v>
+      </c>
       <c r="I121" s="5"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="J121" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="5">
+        <v>80</v>
+      </c>
       <c r="I122" s="5"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="J122" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="M122" s="4"/>
-      <c r="N122" s="5"/>
+      <c r="N122" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="5">
+        <v>350</v>
+      </c>
       <c r="I123" s="5"/>
-      <c r="J123" s="4"/>
+      <c r="J123" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="5"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="5">
+        <v>400</v>
+      </c>
       <c r="I124" s="5"/>
-      <c r="J124" s="4"/>
+      <c r="J124" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="5"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>801</v>
+      </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="4"/>
@@ -6452,68 +6590,112 @@
       <c r="N125" s="5"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="5">
+        <v>60</v>
+      </c>
       <c r="I126" s="5"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
+      <c r="J126" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="N126" s="5"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" s="5">
+        <v>60</v>
+      </c>
       <c r="I127" s="5"/>
-      <c r="J127" s="4"/>
+      <c r="J127" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="5"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H128" s="5">
+        <v>60</v>
+      </c>
       <c r="I128" s="5"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
+      <c r="J128" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="5"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="4"/>
+      <c r="F129" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="H129" s="5">
+        <v>200</v>
+      </c>
+      <c r="I129" s="5">
+        <v>75</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
-      <c r="N129" s="5"/>
+      <c r="N129" s="5" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
@@ -6521,15 +6703,23 @@
       <c r="C130" s="5"/>
       <c r="D130" s="6"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+      <c r="F130" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>961</v>
+      </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="J130" s="4"/>
+      <c r="J130" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
-      <c r="N130" s="5"/>
+      <c r="N130" s="5" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
@@ -15508,6 +15698,11 @@
       <c r="N691" s="5"/>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A692" s="5"/>
+      <c r="B692" s="5"/>
+      <c r="C692" s="5"/>
+      <c r="D692" s="6"/>
+      <c r="E692" s="5"/>
       <c r="F692" s="5"/>
       <c r="G692" s="5"/>
       <c r="H692" s="5"/>
@@ -15519,6 +15714,11 @@
       <c r="N692" s="5"/>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A693" s="5"/>
+      <c r="B693" s="5"/>
+      <c r="C693" s="5"/>
+      <c r="D693" s="6"/>
+      <c r="E693" s="5"/>
       <c r="F693" s="5"/>
       <c r="G693" s="5"/>
       <c r="H693" s="5"/>
@@ -15530,6 +15730,11 @@
       <c r="N693" s="5"/>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A694" s="5"/>
+      <c r="B694" s="5"/>
+      <c r="C694" s="5"/>
+      <c r="D694" s="6"/>
+      <c r="E694" s="5"/>
       <c r="F694" s="5"/>
       <c r="G694" s="5"/>
       <c r="H694" s="5"/>
@@ -15541,6 +15746,11 @@
       <c r="N694" s="5"/>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A695" s="5"/>
+      <c r="B695" s="5"/>
+      <c r="C695" s="5"/>
+      <c r="D695" s="6"/>
+      <c r="E695" s="5"/>
       <c r="F695" s="5"/>
       <c r="G695" s="5"/>
       <c r="H695" s="5"/>
@@ -15552,6 +15762,11 @@
       <c r="N695" s="5"/>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A696" s="5"/>
+      <c r="B696" s="5"/>
+      <c r="C696" s="5"/>
+      <c r="D696" s="6"/>
+      <c r="E696" s="5"/>
       <c r="F696" s="5"/>
       <c r="G696" s="5"/>
       <c r="H696" s="5"/>
@@ -15563,6 +15778,11 @@
       <c r="N696" s="5"/>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A697" s="5"/>
+      <c r="B697" s="5"/>
+      <c r="C697" s="5"/>
+      <c r="D697" s="6"/>
+      <c r="E697" s="5"/>
       <c r="F697" s="5"/>
       <c r="G697" s="5"/>
       <c r="H697" s="5"/>
@@ -15574,6 +15794,11 @@
       <c r="N697" s="5"/>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A698" s="5"/>
+      <c r="B698" s="5"/>
+      <c r="C698" s="5"/>
+      <c r="D698" s="6"/>
+      <c r="E698" s="5"/>
       <c r="F698" s="5"/>
       <c r="G698" s="5"/>
       <c r="H698" s="5"/>
@@ -15585,6 +15810,11 @@
       <c r="N698" s="5"/>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A699" s="5"/>
+      <c r="B699" s="5"/>
+      <c r="C699" s="5"/>
+      <c r="D699" s="6"/>
+      <c r="E699" s="5"/>
       <c r="F699" s="5"/>
       <c r="G699" s="5"/>
       <c r="H699" s="5"/>
@@ -15594,6 +15824,126 @@
       <c r="L699" s="4"/>
       <c r="M699" s="4"/>
       <c r="N699" s="5"/>
+    </row>
+    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A700" s="5"/>
+      <c r="B700" s="5"/>
+      <c r="C700" s="5"/>
+      <c r="D700" s="6"/>
+      <c r="E700" s="5"/>
+      <c r="F700" s="5"/>
+      <c r="G700" s="5"/>
+      <c r="H700" s="5"/>
+      <c r="I700" s="5"/>
+      <c r="J700" s="4"/>
+      <c r="K700" s="4"/>
+      <c r="L700" s="4"/>
+      <c r="M700" s="4"/>
+      <c r="N700" s="5"/>
+    </row>
+    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A701" s="5"/>
+      <c r="B701" s="5"/>
+      <c r="C701" s="5"/>
+      <c r="D701" s="6"/>
+      <c r="E701" s="5"/>
+      <c r="F701" s="5"/>
+      <c r="G701" s="5"/>
+      <c r="H701" s="5"/>
+      <c r="I701" s="5"/>
+      <c r="J701" s="4"/>
+      <c r="K701" s="4"/>
+      <c r="L701" s="4"/>
+      <c r="M701" s="4"/>
+      <c r="N701" s="5"/>
+    </row>
+    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F702" s="5"/>
+      <c r="G702" s="5"/>
+      <c r="H702" s="5"/>
+      <c r="I702" s="5"/>
+      <c r="J702" s="4"/>
+      <c r="K702" s="4"/>
+      <c r="L702" s="4"/>
+      <c r="M702" s="4"/>
+      <c r="N702" s="5"/>
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F703" s="5"/>
+      <c r="G703" s="5"/>
+      <c r="H703" s="5"/>
+      <c r="I703" s="5"/>
+      <c r="J703" s="4"/>
+      <c r="K703" s="4"/>
+      <c r="L703" s="4"/>
+      <c r="M703" s="4"/>
+      <c r="N703" s="5"/>
+    </row>
+    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F704" s="5"/>
+      <c r="G704" s="5"/>
+      <c r="H704" s="5"/>
+      <c r="I704" s="5"/>
+      <c r="J704" s="4"/>
+      <c r="K704" s="4"/>
+      <c r="L704" s="4"/>
+      <c r="M704" s="4"/>
+      <c r="N704" s="5"/>
+    </row>
+    <row r="705" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F705" s="5"/>
+      <c r="G705" s="5"/>
+      <c r="H705" s="5"/>
+      <c r="I705" s="5"/>
+      <c r="J705" s="4"/>
+      <c r="K705" s="4"/>
+      <c r="L705" s="4"/>
+      <c r="M705" s="4"/>
+      <c r="N705" s="5"/>
+    </row>
+    <row r="706" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F706" s="5"/>
+      <c r="G706" s="5"/>
+      <c r="H706" s="5"/>
+      <c r="I706" s="5"/>
+      <c r="J706" s="4"/>
+      <c r="K706" s="4"/>
+      <c r="L706" s="4"/>
+      <c r="M706" s="4"/>
+      <c r="N706" s="5"/>
+    </row>
+    <row r="707" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F707" s="5"/>
+      <c r="G707" s="5"/>
+      <c r="H707" s="5"/>
+      <c r="I707" s="5"/>
+      <c r="J707" s="4"/>
+      <c r="K707" s="4"/>
+      <c r="L707" s="4"/>
+      <c r="M707" s="4"/>
+      <c r="N707" s="5"/>
+    </row>
+    <row r="708" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F708" s="5"/>
+      <c r="G708" s="5"/>
+      <c r="H708" s="5"/>
+      <c r="I708" s="5"/>
+      <c r="J708" s="4"/>
+      <c r="K708" s="4"/>
+      <c r="L708" s="4"/>
+      <c r="M708" s="4"/>
+      <c r="N708" s="5"/>
+    </row>
+    <row r="709" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F709" s="5"/>
+      <c r="G709" s="5"/>
+      <c r="H709" s="5"/>
+      <c r="I709" s="5"/>
+      <c r="J709" s="4"/>
+      <c r="K709" s="4"/>
+      <c r="L709" s="4"/>
+      <c r="M709" s="4"/>
+      <c r="N709" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15605,7 +15955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L672"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
@@ -54488,11 +54838,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L630"/>
+  <dimension ref="A1:L632"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54765,7 +55115,7 @@
         <v>477</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>935</v>
@@ -54780,15 +55130,17 @@
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>485</v>
+        <v>811</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>484</v>
+        <v>980</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -54800,13 +55152,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>299</v>
+        <v>484</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>477</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -54820,10 +55172,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>61</v>
@@ -54840,13 +55192,13 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>477</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -54860,10 +55212,10 @@
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>565</v>
+        <v>486</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>477</v>
@@ -54880,17 +55232,15 @@
       <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>463</v>
+        <v>565</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>319</v>
+        <v>566</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -54902,15 +55252,17 @@
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>482</v>
+        <v>319</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -54922,13 +55274,13 @@
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>302</v>
+        <v>482</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
+        <v>477</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -54942,13 +55294,13 @@
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>568</v>
+        <v>302</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -54962,13 +55314,13 @@
       <c r="C22" s="7"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>574</v>
+        <v>487</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -54982,10 +55334,10 @@
       <c r="C23" s="7"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>67</v>
@@ -54998,17 +55350,17 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>871</v>
+        <v>579</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -55022,13 +55374,13 @@
       <c r="C25" s="7"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>457</v>
+        <v>571</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>315</v>
+        <v>871</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -55038,17 +55390,17 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>582</v>
+        <v>457</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>581</v>
+        <v>315</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -55062,10 +55414,10 @@
       <c r="C27" s="7"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>67</v>
@@ -55082,13 +55434,13 @@
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5" t="s">
-        <v>444</v>
+        <v>584</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>303</v>
+        <v>583</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -55098,19 +55450,21 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>479</v>
+        <v>978</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>979</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -55122,13 +55476,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>481</v>
+        <v>303</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>477</v>
+        <v>61</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -55142,17 +55496,15 @@
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H31" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -55164,13 +55516,13 @@
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>320</v>
+        <v>481</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>64</v>
+        <v>477</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -55184,15 +55536,17 @@
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>569</v>
+        <v>461</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>570</v>
+        <v>422</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>420</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -55204,10 +55558,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>64</v>
@@ -55224,13 +55578,13 @@
       <c r="C35" s="7"/>
       <c r="D35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>458</v>
+        <v>569</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>316</v>
+        <v>570</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -55244,13 +55598,13 @@
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>586</v>
+        <v>317</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>477</v>
+        <v>64</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -55264,13 +55618,13 @@
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>588</v>
+        <v>458</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>587</v>
+        <v>316</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -55284,13 +55638,13 @@
       <c r="C38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>446</v>
+        <v>585</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>304</v>
+        <v>586</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>61</v>
+        <v>477</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -55304,17 +55658,15 @@
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>477</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -55326,13 +55678,13 @@
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>575</v>
+        <v>446</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>576</v>
+        <v>304</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -55346,15 +55698,17 @@
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -55366,10 +55720,10 @@
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>67</v>
@@ -55386,13 +55740,13 @@
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
       <c r="E43" s="5" t="s">
-        <v>442</v>
+        <v>571</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -55406,10 +55760,10 @@
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>459</v>
+        <v>578</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>67</v>
@@ -55426,10 +55780,10 @@
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>64</v>
@@ -55446,13 +55800,13 @@
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>567</v>
+        <v>459</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>480</v>
+        <v>589</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>477</v>
+        <v>67</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -55466,13 +55820,13 @@
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="5" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>477</v>
+        <v>64</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -55482,17 +55836,17 @@
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>67</v>
+        <v>477</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -55502,17 +55856,17 @@
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>67</v>
+        <v>477</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -55526,10 +55880,10 @@
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>67</v>
@@ -55546,10 +55900,10 @@
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>67</v>
@@ -55566,10 +55920,10 @@
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>67</v>
@@ -55586,10 +55940,10 @@
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>67</v>
@@ -55606,10 +55960,10 @@
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>67</v>
@@ -55626,13 +55980,13 @@
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -55646,13 +56000,13 @@
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>392</v>
+        <v>534</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -55662,21 +56016,19 @@
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>814</v>
+        <v>536</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>749</v>
+        <v>406</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -55688,13 +56040,13 @@
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -55704,19 +56056,21 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5" t="s">
-        <v>407</v>
+        <v>814</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>369</v>
+        <v>749</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="4"/>
+        <v>748</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -55728,13 +56082,13 @@
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -55748,13 +56102,13 @@
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>418</v>
+        <v>64</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -55768,10 +56122,10 @@
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
       <c r="E62" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>64</v>
@@ -55788,10 +56142,10 @@
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
       <c r="E63" s="5" t="s">
-        <v>627</v>
+        <v>419</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>626</v>
+        <v>417</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>418</v>
@@ -55808,10 +56162,10 @@
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
       <c r="E64" s="5" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>64</v>
@@ -55828,13 +56182,13 @@
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
       <c r="E65" s="5" t="s">
-        <v>453</v>
+        <v>627</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>311</v>
+        <v>626</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>64</v>
+        <v>418</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -55848,10 +56202,10 @@
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
       <c r="E66" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>64</v>
@@ -55868,13 +56222,13 @@
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>628</v>
+        <v>453</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>815</v>
+        <v>311</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -55888,17 +56242,15 @@
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
       <c r="E68" s="5" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>502</v>
+        <v>314</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -55910,10 +56262,10 @@
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
       <c r="E69" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>306</v>
+        <v>815</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>67</v>
@@ -55926,19 +56278,21 @@
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
       <c r="E70" s="5" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>275</v>
+        <v>502</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -55946,17 +56300,17 @@
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="6"/>
       <c r="E71" s="5" t="s">
-        <v>535</v>
+        <v>631</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -55970,10 +56324,10 @@
       <c r="C72" s="7"/>
       <c r="D72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>61</v>
@@ -55986,21 +56340,19 @@
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="6"/>
       <c r="E73" s="5" t="s">
-        <v>816</v>
+        <v>535</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>817</v>
+        <v>324</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -56008,17 +56360,17 @@
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="6"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="6"/>
       <c r="E74" s="5" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>409</v>
+        <v>279</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -56028,19 +56380,21 @@
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="13"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="6"/>
       <c r="E75" s="5" t="s">
-        <v>504</v>
+        <v>816</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>273</v>
+        <v>817</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -56048,17 +56402,17 @@
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
       <c r="E76" s="5" t="s">
-        <v>507</v>
+        <v>410</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -56068,14 +56422,14 @@
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>61</v>
@@ -56092,13 +56446,13 @@
       <c r="C78" s="7"/>
       <c r="D78" s="6"/>
       <c r="E78" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -56112,10 +56466,10 @@
       <c r="C79" s="7"/>
       <c r="D79" s="6"/>
       <c r="E79" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>61</v>
@@ -56128,17 +56482,17 @@
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="6"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
       <c r="E80" s="5" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -56152,13 +56506,13 @@
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
       <c r="E81" s="5" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -56168,17 +56522,17 @@
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6"/>
       <c r="E82" s="5" t="s">
-        <v>819</v>
+        <v>452</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>818</v>
+        <v>310</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -56192,10 +56546,10 @@
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
       <c r="E83" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>63</v>
@@ -56212,13 +56566,13 @@
       <c r="C84" s="7"/>
       <c r="D84" s="6"/>
       <c r="E84" s="5" t="s">
-        <v>435</v>
+        <v>819</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>278</v>
+        <v>818</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -56232,13 +56586,13 @@
       <c r="C85" s="7"/>
       <c r="D85" s="6"/>
       <c r="E85" s="5" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -56248,17 +56602,17 @@
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="6"/>
       <c r="E86" s="5" t="s">
-        <v>552</v>
+        <v>435</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>551</v>
+        <v>278</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -56268,21 +56622,19 @@
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="6"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6"/>
       <c r="E87" s="5" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -56294,17 +56646,15 @@
       <c r="C88" s="7"/>
       <c r="D88" s="6"/>
       <c r="E88" s="5" t="s">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>348</v>
+        <v>551</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -56316,15 +56666,17 @@
       <c r="C89" s="7"/>
       <c r="D89" s="6"/>
       <c r="E89" s="5" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H89" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -56336,15 +56688,17 @@
       <c r="C90" s="7"/>
       <c r="D90" s="6"/>
       <c r="E90" s="5" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H90" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -56356,13 +56710,13 @@
       <c r="C91" s="7"/>
       <c r="D91" s="6"/>
       <c r="E91" s="5" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -56376,13 +56730,13 @@
       <c r="C92" s="7"/>
       <c r="D92" s="6"/>
       <c r="E92" s="5" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -56399,7 +56753,7 @@
         <v>426</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>61</v>
@@ -56416,10 +56770,10 @@
       <c r="C94" s="7"/>
       <c r="D94" s="6"/>
       <c r="E94" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>61</v>
@@ -56436,10 +56790,10 @@
       <c r="C95" s="7"/>
       <c r="D95" s="6"/>
       <c r="E95" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>61</v>
@@ -56456,10 +56810,10 @@
       <c r="C96" s="7"/>
       <c r="D96" s="6"/>
       <c r="E96" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>61</v>
@@ -56476,13 +56830,13 @@
       <c r="C97" s="7"/>
       <c r="D97" s="6"/>
       <c r="E97" s="5" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -56496,13 +56850,13 @@
       <c r="C98" s="7"/>
       <c r="D98" s="6"/>
       <c r="E98" s="5" t="s">
-        <v>630</v>
+        <v>430</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>629</v>
+        <v>289</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -56516,13 +56870,13 @@
       <c r="C99" s="7"/>
       <c r="D99" s="6"/>
       <c r="E99" s="5" t="s">
-        <v>632</v>
+        <v>412</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -56536,13 +56890,13 @@
       <c r="C100" s="7"/>
       <c r="D100" s="6"/>
       <c r="E100" s="5" t="s">
-        <v>428</v>
+        <v>630</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>287</v>
+        <v>629</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -56556,13 +56910,13 @@
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5" t="s">
-        <v>431</v>
+        <v>632</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -56576,13 +56930,13 @@
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
       <c r="E102" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -56596,10 +56950,10 @@
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
       <c r="E103" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>67</v>
@@ -56616,17 +56970,15 @@
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
       <c r="E104" s="5" t="s">
-        <v>750</v>
+        <v>427</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>751</v>
+        <v>286</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -56634,21 +56986,19 @@
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="18"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="6"/>
       <c r="E105" s="5" t="s">
-        <v>909</v>
+        <v>429</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>908</v>
+        <v>288</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -56660,16 +57010,16 @@
       <c r="C106" s="7"/>
       <c r="D106" s="6"/>
       <c r="E106" s="5" t="s">
-        <v>439</v>
+        <v>750</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>590</v>
+        <v>751</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>61</v>
+        <v>748</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -56678,19 +57028,21 @@
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="6"/>
       <c r="E107" s="5" t="s">
-        <v>516</v>
+        <v>909</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>332</v>
+        <v>908</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H107" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -56702,15 +57054,17 @@
       <c r="C108" s="7"/>
       <c r="D108" s="6"/>
       <c r="E108" s="5" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>333</v>
+        <v>590</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H108" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -56722,20 +57076,16 @@
       <c r="C109" s="7"/>
       <c r="D109" s="6"/>
       <c r="E109" s="5" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>759</v>
+        <v>332</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I109" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="5"/>
@@ -56746,17 +57096,15 @@
       <c r="C110" s="7"/>
       <c r="D110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>501</v>
+        <v>333</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H110" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -56768,16 +57116,20 @@
       <c r="C111" s="7"/>
       <c r="D111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>331</v>
+        <v>759</v>
       </c>
       <c r="G111" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="5"/>
@@ -56788,15 +57140,17 @@
       <c r="C112" s="7"/>
       <c r="D112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>330</v>
+        <v>501</v>
       </c>
       <c r="G112" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
@@ -56808,10 +57162,10 @@
       <c r="C113" s="7"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5" t="s">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>63</v>
@@ -56828,17 +57182,15 @@
       <c r="C114" s="7"/>
       <c r="D114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>512</v>
+        <v>330</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H114" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -56850,17 +57202,15 @@
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
       <c r="E115" s="5" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>634</v>
+        <v>334</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H115" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -56868,19 +57218,21 @@
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="5" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H116" s="4"/>
+        <v>477</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -56888,20 +57240,20 @@
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="18"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="6"/>
       <c r="E117" s="5" t="s">
-        <v>913</v>
+        <v>514</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>912</v>
+        <v>634</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>697</v>
+        <v>68</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -56910,17 +57262,17 @@
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="7"/>
       <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>336</v>
+        <v>553</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -56930,19 +57282,21 @@
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="6"/>
       <c r="E119" s="5" t="s">
-        <v>471</v>
+        <v>913</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>337</v>
+        <v>912</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H119" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -56950,21 +57304,19 @@
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="18"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="6"/>
       <c r="E120" s="5" t="s">
-        <v>911</v>
+        <v>560</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>910</v>
+        <v>336</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -56976,13 +57328,13 @@
       <c r="C121" s="7"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -56992,19 +57344,21 @@
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="18"/>
       <c r="D122" s="6"/>
       <c r="E122" s="5" t="s">
-        <v>543</v>
+        <v>911</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>335</v>
+        <v>910</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H122" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -57016,10 +57370,10 @@
       <c r="C123" s="7"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5" t="s">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>61</v>
@@ -57036,13 +57390,13 @@
       <c r="C124" s="7"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -57056,13 +57410,13 @@
       <c r="C125" s="7"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -57076,13 +57430,13 @@
       <c r="C126" s="7"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -57096,10 +57450,10 @@
       <c r="C127" s="7"/>
       <c r="D127" s="6"/>
       <c r="E127" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>63</v>
@@ -57116,13 +57470,13 @@
       <c r="C128" s="7"/>
       <c r="D128" s="6"/>
       <c r="E128" s="5" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -57136,10 +57490,10 @@
       <c r="C129" s="7"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>63</v>
@@ -57150,16 +57504,16 @@
       <c r="K129" s="4"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="6"/>
       <c r="E130" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>63</v>
@@ -57170,16 +57524,16 @@
       <c r="K130" s="4"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="6"/>
       <c r="E131" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>63</v>
@@ -57196,13 +57550,13 @@
       <c r="C132" s="7"/>
       <c r="D132" s="6"/>
       <c r="E132" s="5" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
@@ -57216,13 +57570,13 @@
       <c r="C133" s="7"/>
       <c r="D133" s="6"/>
       <c r="E133" s="5" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
@@ -57230,19 +57584,19 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="6"/>
       <c r="E134" s="5" t="s">
-        <v>789</v>
+        <v>437</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>788</v>
+        <v>276</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>697</v>
+        <v>61</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -57256,13 +57610,13 @@
       <c r="C135" s="7"/>
       <c r="D135" s="6"/>
       <c r="E135" s="5" t="s">
-        <v>822</v>
+        <v>436</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>821</v>
+        <v>362</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -57270,19 +57624,19 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="5" t="s">
-        <v>824</v>
+        <v>789</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -57292,17 +57646,17 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
       <c r="E137" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -57312,17 +57666,17 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="6"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="6"/>
       <c r="E138" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>828</v>
+        <v>63</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -57336,13 +57690,13 @@
       <c r="C139" s="7"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>758</v>
+        <v>697</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -57352,17 +57706,17 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+      <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5" t="s">
-        <v>870</v>
+        <v>829</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>868</v>
+        <v>827</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>869</v>
+        <v>828</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -57371,13 +57725,19 @@
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="4"/>
+      <c r="E141" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>758</v>
+      </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -57385,13 +57745,19 @@
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="4"/>
+      <c r="E142" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>869</v>
+      </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -57399,27 +57765,41 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="4"/>
+      <c r="E143" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="5"/>
+      <c r="L143" s="5" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="18"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="4"/>
+      <c r="E144" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -57427,13 +57807,19 @@
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="4"/>
+      <c r="E145" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -57441,13 +57827,19 @@
       <c r="L145" s="5"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="4"/>
+      <c r="E146" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -58071,10 +58463,10 @@
       <c r="L190" s="5"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="4"/>
@@ -58085,10 +58477,10 @@
       <c r="L191" s="5"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="4"/>
@@ -64229,6 +64621,34 @@
       <c r="J630" s="4"/>
       <c r="K630" s="4"/>
       <c r="L630" s="5"/>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A631" s="5"/>
+      <c r="B631" s="5"/>
+      <c r="C631" s="5"/>
+      <c r="D631" s="5"/>
+      <c r="E631" s="5"/>
+      <c r="F631" s="5"/>
+      <c r="G631" s="4"/>
+      <c r="H631" s="4"/>
+      <c r="I631" s="4"/>
+      <c r="J631" s="4"/>
+      <c r="K631" s="4"/>
+      <c r="L631" s="5"/>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A632" s="5"/>
+      <c r="B632" s="5"/>
+      <c r="C632" s="5"/>
+      <c r="D632" s="5"/>
+      <c r="E632" s="5"/>
+      <c r="F632" s="5"/>
+      <c r="G632" s="4"/>
+      <c r="H632" s="4"/>
+      <c r="I632" s="4"/>
+      <c r="J632" s="4"/>
+      <c r="K632" s="4"/>
+      <c r="L632" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeepFeatureChecklist.xlsx
+++ b/KeepFeatureChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Full List Per Mod'!$A$1:$B$409</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$206</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$135</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="1021">
   <si>
     <t>KEEP - ENEMIES TO INCLUDE</t>
   </si>
@@ -2941,9 +2941,6 @@
     <t>monster_frog</t>
   </si>
   <si>
-    <t>Frog</t>
-  </si>
-  <si>
     <t>env_lightning</t>
   </si>
   <si>
@@ -3101,6 +3098,15 @@
   </si>
   <si>
     <t>Could just use info_target, keeping for legacy</t>
+  </si>
+  <si>
+    <t>monster_sheep</t>
+  </si>
+  <si>
+    <t>Frog (DENIZEN)</t>
+  </si>
+  <si>
+    <t>Sheep (DENIZEN)</t>
   </si>
 </sst>
 </file>
@@ -3507,11 +3513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N715"/>
+  <dimension ref="A1:N716"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,7 +3717,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>43</v>
@@ -3737,7 +3743,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>44</v>
@@ -3761,7 +3767,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>45</v>
@@ -3787,17 +3793,17 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H11" s="5">
         <v>50</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>474</v>
@@ -3807,7 +3813,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -4325,10 +4331,10 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H33" s="5">
         <v>250</v>
@@ -4373,10 +4379,10 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="H35" s="5">
         <v>3500</v>
@@ -4385,13 +4391,13 @@
         <v>4300</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5311,10 +5317,10 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H72" s="5">
         <v>1000</v>
@@ -5327,7 +5333,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5337,10 +5343,10 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H73" s="5">
         <v>600</v>
@@ -5468,7 +5474,7 @@
         <v>691</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H78" s="5">
         <v>400</v>
@@ -5705,7 +5711,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5776,7 +5782,7 @@
         <v>962</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -5903,10 +5909,10 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>999</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>1000</v>
       </c>
       <c r="H95" s="5">
         <v>135</v>
@@ -5975,7 +5981,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="5" t="s">
-        <v>965</v>
+        <v>1019</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>964</v>
@@ -6077,17 +6083,17 @@
       <c r="D102" s="6"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H102" s="5">
         <v>200</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -6268,7 +6274,7 @@
         <v>109</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H109" s="5">
         <v>2500</v>
@@ -6277,13 +6283,13 @@
         <v>4300</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -6317,17 +6323,17 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="5" t="s">
-        <v>204</v>
+        <v>1020</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>57</v>
+        <v>1018</v>
       </c>
       <c r="H111" s="5">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="4" t="s">
-        <v>63</v>
+        <v>914</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -6341,14 +6347,18 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5" t="s">
-        <v>751</v>
+        <v>204</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="H112" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="H112" s="5">
+        <v>120</v>
+      </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="4"/>
+      <c r="J112" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -6361,97 +6371,93 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="5" t="s">
-        <v>94</v>
+        <v>751</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H113" s="5">
-        <v>30</v>
-      </c>
-      <c r="I113" s="5">
-        <v>75</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="H114" s="5">
-        <v>200</v>
-      </c>
-      <c r="I114" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I114" s="5">
+        <v>75</v>
+      </c>
       <c r="J114" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="N114" s="5"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="6"/>
       <c r="F115" s="5" t="s">
-        <v>724</v>
+        <v>90</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>723</v>
+        <v>372</v>
       </c>
       <c r="H115" s="5">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K115" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="5"/>
+      <c r="N115" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
+      <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>117</v>
+        <v>724</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>33</v>
+        <v>723</v>
       </c>
       <c r="H116" s="5">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -6460,22 +6466,22 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="6"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="5" t="s">
-        <v>985</v>
+        <v>117</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>984</v>
+        <v>33</v>
       </c>
       <c r="H117" s="5">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -6484,28 +6490,24 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="5" t="s">
-        <v>666</v>
+        <v>984</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>665</v>
+        <v>983</v>
       </c>
       <c r="H118" s="5">
-        <v>30</v>
-      </c>
-      <c r="I118" s="5">
-        <v>60</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I118" s="5"/>
       <c r="J118" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K118" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="5"/>
@@ -6517,19 +6519,23 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="5" t="s">
-        <v>114</v>
+        <v>666</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>34</v>
+        <v>665</v>
       </c>
       <c r="H119" s="5">
-        <v>150</v>
-      </c>
-      <c r="I119" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I119" s="5">
+        <v>60</v>
+      </c>
       <c r="J119" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K119" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="5"/>
@@ -6541,21 +6547,19 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H120" s="5">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K120" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="5"/>
@@ -6567,13 +6571,13 @@
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="5" t="s">
-        <v>636</v>
+        <v>108</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>638</v>
+        <v>22</v>
       </c>
       <c r="H121" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="4" t="s">
@@ -6584,56 +6588,58 @@
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="6"/>
       <c r="F122" s="5" t="s">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>726</v>
+        <v>638</v>
       </c>
       <c r="H122" s="5">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="4" t="s">
-        <v>417</v>
+        <v>61</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="5"/>
+      <c r="N122" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>136</v>
+        <v>727</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>137</v>
+        <v>726</v>
       </c>
       <c r="H123" s="5">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K123" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="5"/>
@@ -6645,17 +6651,17 @@
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="5" t="s">
-        <v>753</v>
+        <v>136</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>754</v>
+        <v>137</v>
       </c>
       <c r="H124" s="5">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="4" t="s">
-        <v>755</v>
+        <v>67</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -6669,21 +6675,19 @@
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="5" t="s">
-        <v>915</v>
+        <v>753</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>917</v>
+        <v>754</v>
       </c>
       <c r="H125" s="5">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="5"/>
@@ -6695,20 +6699,20 @@
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="5" t="s">
-        <v>124</v>
+        <v>915</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>42</v>
+        <v>917</v>
       </c>
       <c r="H126" s="5">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="4" t="s">
-        <v>67</v>
+        <v>916</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -6721,19 +6725,21 @@
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="5" t="s">
-        <v>797</v>
+        <v>124</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>996</v>
+        <v>42</v>
       </c>
       <c r="H127" s="5">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="K127" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="5"/>
@@ -6745,28 +6751,22 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="5" t="s">
-        <v>106</v>
+        <v>797</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>23</v>
+        <v>995</v>
       </c>
       <c r="H128" s="5">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>556</v>
-      </c>
+        <v>993</v>
+      </c>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
       <c r="M128" s="4"/>
-      <c r="N128" s="5" t="s">
-        <v>652</v>
-      </c>
+      <c r="N128" s="5"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
@@ -6775,22 +6775,28 @@
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H129" s="5">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="L129" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="M129" s="4"/>
-      <c r="N129" s="5"/>
+      <c r="N129" s="5" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
@@ -6799,17 +6805,17 @@
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="5" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H130" s="5">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -6823,14 +6829,18 @@
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="5" t="s">
-        <v>749</v>
+        <v>93</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="H131" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="H131" s="5">
+        <v>400</v>
+      </c>
       <c r="I131" s="5"/>
-      <c r="J131" s="4"/>
+      <c r="J131" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
@@ -6843,27 +6853,17 @@
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="5" t="s">
-        <v>87</v>
+        <v>749</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="5">
-        <v>60</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M132" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
       <c r="N132" s="5"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6873,21 +6873,27 @@
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="5" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H133" s="5">
         <v>60</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M133" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
       <c r="N133" s="5"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6897,10 +6903,10 @@
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="5" t="s">
-        <v>669</v>
+        <v>205</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>637</v>
+        <v>59</v>
       </c>
       <c r="H134" s="5">
         <v>60</v>
@@ -6909,9 +6915,7 @@
       <c r="J134" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K134" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="5"/>
@@ -6921,51 +6925,53 @@
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="6"/>
       <c r="F135" s="5" t="s">
-        <v>805</v>
+        <v>669</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>803</v>
+        <v>637</v>
       </c>
       <c r="H135" s="5">
-        <v>200</v>
-      </c>
-      <c r="I135" s="5">
-        <v>75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I135" s="5"/>
       <c r="J135" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K135" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
-      <c r="N135" s="5" t="s">
-        <v>804</v>
-      </c>
+      <c r="N135" s="5"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5" t="s">
-        <v>957</v>
+        <v>805</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
+        <v>803</v>
+      </c>
+      <c r="H136" s="5">
+        <v>200</v>
+      </c>
+      <c r="I136" s="5">
+        <v>75</v>
+      </c>
       <c r="J136" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="5" t="s">
-        <v>961</v>
+        <v>804</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6974,15 +6980,23 @@
       <c r="C137" s="5"/>
       <c r="D137" s="6"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="F137" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>958</v>
+      </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="4"/>
+      <c r="J137" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
-      <c r="N137" s="5"/>
+      <c r="N137" s="5" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
@@ -16105,6 +16119,11 @@
       <c r="N707" s="5"/>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A708" s="5"/>
+      <c r="B708" s="5"/>
+      <c r="C708" s="5"/>
+      <c r="D708" s="6"/>
+      <c r="E708" s="5"/>
       <c r="F708" s="5"/>
       <c r="G708" s="5"/>
       <c r="H708" s="5"/>
@@ -16191,6 +16210,17 @@
       <c r="L715" s="4"/>
       <c r="M715" s="4"/>
       <c r="N715" s="5"/>
+    </row>
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F716" s="5"/>
+      <c r="G716" s="5"/>
+      <c r="H716" s="5"/>
+      <c r="I716" s="5"/>
+      <c r="J716" s="4"/>
+      <c r="K716" s="4"/>
+      <c r="L716" s="4"/>
+      <c r="M716" s="4"/>
+      <c r="N716" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16354,10 +16384,10 @@
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>1008</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1009</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>474</v>
@@ -26450,7 +26480,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -26625,10 +26655,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>1011</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>65</v>
@@ -26773,10 +26803,10 @@
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>65</v>
@@ -26798,7 +26828,7 @@
         <v>189</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>61</v>
@@ -26810,7 +26840,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -27016,7 +27046,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -27160,7 +27190,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -55163,7 +55193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L632"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
@@ -55456,7 +55486,7 @@
         <v>808</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>63</v>
@@ -55780,13 +55810,13 @@
         <v>581</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -56862,7 +56892,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -58095,10 +58125,10 @@
       <c r="C143" s="17"/>
       <c r="D143" s="6"/>
       <c r="E143" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>65</v>
@@ -58108,7 +58138,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -58117,10 +58147,10 @@
       <c r="C144" s="17"/>
       <c r="D144" s="6"/>
       <c r="E144" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>65</v>
@@ -58137,10 +58167,10 @@
       <c r="C145" s="7"/>
       <c r="D145" s="6"/>
       <c r="E145" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>63</v>
@@ -58157,10 +58187,10 @@
       <c r="C146" s="7"/>
       <c r="D146" s="6"/>
       <c r="E146" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>63</v>

--- a/KeepFeatureChecklist.xlsx
+++ b/KeepFeatureChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Full List Per Mod'!$A$1:$B$409</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Traps!$A$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Weapons!$A$2:$L$2</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="1023">
   <si>
     <t>KEEP - ENEMIES TO INCLUDE</t>
   </si>
@@ -3107,13 +3107,19 @@
   </si>
   <si>
     <t>Sheep (DENIZEN)</t>
+  </si>
+  <si>
+    <t>Health Vial</t>
+  </si>
+  <si>
+    <t>item_healthvial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3130,6 +3136,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3201,7 +3214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3233,6 +3246,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3515,9 +3529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N716"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3629,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="5" t="s">
         <v>742</v>
       </c>
@@ -3641,7 +3655,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
         <v>744</v>
       </c>
@@ -3791,7 +3805,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
         <v>989</v>
       </c>
@@ -3821,7 +3835,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
         <v>688</v>
       </c>
@@ -3869,7 +3883,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="5" t="s">
         <v>799</v>
       </c>
@@ -3895,7 +3909,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
         <v>955</v>
       </c>
@@ -3917,7 +3931,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
         <v>793</v>
       </c>
@@ -4276,7 +4290,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -4350,7 +4364,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -4526,7 +4540,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -4576,7 +4590,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -4874,7 +4888,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -4902,10 +4916,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="5" t="s">
         <v>800</v>
       </c>
@@ -4976,7 +4990,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -5260,7 +5274,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5394,7 +5408,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="6"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -5442,7 +5456,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5742,7 +5756,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -6414,7 +6428,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -6442,7 +6456,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
       <c r="E116" s="5"/>
@@ -16234,7 +16248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16402,7 +16416,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="5" t="s">
         <v>940</v>
       </c>
@@ -16426,7 +16440,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="5" t="s">
         <v>951</v>
       </c>
@@ -16450,7 +16464,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="5" t="s">
         <v>941</v>
       </c>
@@ -16560,7 +16574,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
         <v>944</v>
       </c>
@@ -16712,7 +16726,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
         <v>946</v>
       </c>
@@ -16758,7 +16772,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
         <v>954</v>
       </c>
@@ -16782,7 +16796,7 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5" t="s">
         <v>948</v>
       </c>
@@ -16932,7 +16946,7 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="5" t="s">
         <v>950</v>
       </c>
@@ -16996,7 +17010,7 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="5" t="s">
         <v>772</v>
       </c>
@@ -17018,7 +17032,7 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="5" t="s">
         <v>850</v>
       </c>
@@ -17040,7 +17054,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="5" t="s">
         <v>770</v>
       </c>
@@ -17060,7 +17074,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="5" t="s">
         <v>769</v>
       </c>
@@ -17104,7 +17118,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="5" t="s">
         <v>859</v>
       </c>
@@ -17124,7 +17138,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="5" t="s">
         <v>860</v>
       </c>
@@ -25993,11 +26007,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L670"/>
+  <dimension ref="A1:L671"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26079,7 +26093,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
         <v>181</v>
       </c>
@@ -26099,7 +26113,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
         <v>180</v>
       </c>
@@ -26139,7 +26153,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
         <v>179</v>
       </c>
@@ -26823,7 +26837,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="5" t="s">
         <v>189</v>
       </c>
@@ -26846,22 +26860,24 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="5" t="s">
-        <v>163</v>
+        <v>1021</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>161</v>
+        <v>1022</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -26869,10 +26885,10 @@
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>61</v>
@@ -26885,17 +26901,17 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
       <c r="E43" s="5" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -26905,17 +26921,17 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="5" t="s">
-        <v>398</v>
+        <v>193</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>394</v>
+        <v>192</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -26929,10 +26945,10 @@
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>62</v>
@@ -26949,23 +26965,19 @@
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
       <c r="E46" s="5" t="s">
-        <v>125</v>
+        <v>399</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>190</v>
+        <v>395</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="5" t="s">
-        <v>191</v>
-      </c>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -26973,19 +26985,23 @@
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="5" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>602</v>
+        <v>190</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H47" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -26993,13 +27009,13 @@
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5" t="s">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>396</v>
+        <v>602</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -27013,10 +27029,10 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>62</v>
@@ -27033,21 +27049,19 @@
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5" t="s">
-        <v>720</v>
+        <v>401</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>707</v>
+        <v>397</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="5" t="s">
-        <v>1015</v>
-      </c>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -27055,19 +27069,21 @@
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5" t="s">
-        <v>156</v>
+        <v>720</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>186</v>
+        <v>707</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>61</v>
+        <v>694</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -27075,10 +27091,10 @@
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>61</v>
@@ -27095,10 +27111,10 @@
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="5" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>61</v>
@@ -27115,13 +27131,13 @@
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5" t="s">
-        <v>710</v>
+        <v>183</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>708</v>
+        <v>182</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>694</v>
+        <v>61</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -27135,13 +27151,13 @@
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
       <c r="E55" s="5" t="s">
-        <v>155</v>
+        <v>710</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>185</v>
+        <v>708</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>61</v>
+        <v>694</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -27155,17 +27171,15 @@
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5" t="s">
-        <v>613</v>
+        <v>155</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>706</v>
+        <v>185</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -27173,45 +27187,47 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="6"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
       <c r="E57" s="5" t="s">
-        <v>196</v>
+        <v>613</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>195</v>
+        <v>706</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="4"/>
+        <v>694</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="5" t="s">
-        <v>1016</v>
-      </c>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>721</v>
+        <v>196</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>709</v>
+        <v>195</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -27222,7 +27238,7 @@
         <v>721</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>911</v>
+        <v>709</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>694</v>
@@ -27242,7 +27258,7 @@
         <v>721</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>694</v>
@@ -27254,13 +27270,19 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="4"/>
+      <c r="E61" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -27453,7 +27475,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="4"/>
@@ -35626,6 +35648,9 @@
       <c r="L658" s="5"/>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A659" s="5"/>
+      <c r="B659" s="5"/>
+      <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
@@ -35692,6 +35717,7 @@
       <c r="L664" s="5"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D665" s="5"/>
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
       <c r="G665" s="4"/>
@@ -35750,6 +35776,16 @@
       <c r="J670" s="4"/>
       <c r="K670" s="4"/>
       <c r="L670" s="5"/>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E671" s="5"/>
+      <c r="F671" s="5"/>
+      <c r="G671" s="4"/>
+      <c r="H671" s="4"/>
+      <c r="I671" s="4"/>
+      <c r="J671" s="4"/>
+      <c r="K671" s="4"/>
+      <c r="L671" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeepFeatureChecklist.xlsx
+++ b/KeepFeatureChecklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5970" windowHeight="1035" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Full List Per Mod'!$A$1:$B$409</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$135</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1029">
   <si>
     <t>KEEP - ENEMIES TO INCLUDE</t>
   </si>
@@ -2920,9 +2920,6 @@
     <t>Zerstörer</t>
   </si>
   <si>
-    <t>monster_zerstorer</t>
-  </si>
-  <si>
     <t>Crossbow Swordsman</t>
   </si>
   <si>
@@ -3113,6 +3110,27 @@
   </si>
   <si>
     <t>item_healthvial</t>
+  </si>
+  <si>
+    <t>monster_zerstorer, monster_zer</t>
+  </si>
+  <si>
+    <t>monster_ogle</t>
+  </si>
+  <si>
+    <t>Ogle</t>
+  </si>
+  <si>
+    <t>Ogre Captain</t>
+  </si>
+  <si>
+    <t>monster_inquisitor</t>
+  </si>
+  <si>
+    <t>Inquisitor</t>
+  </si>
+  <si>
+    <t>monster_nehahra</t>
   </si>
 </sst>
 </file>
@@ -3527,11 +3545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N716"/>
+  <dimension ref="A1:N719"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,7 +3749,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>43</v>
@@ -3757,7 +3775,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>44</v>
@@ -3781,7 +3799,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>45</v>
@@ -3807,17 +3825,17 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H11" s="5">
         <v>50</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>474</v>
@@ -3827,7 +3845,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -4175,10 +4193,10 @@
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>959</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>960</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -4189,7 +4207,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4345,10 +4363,10 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H33" s="5">
         <v>250</v>
@@ -4393,10 +4411,10 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>1002</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>1003</v>
       </c>
       <c r="H35" s="5">
         <v>3500</v>
@@ -4405,13 +4423,13 @@
         <v>4300</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5305,19 +5323,17 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="5" t="s">
-        <v>128</v>
+        <v>1027</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>647</v>
+        <v>1026</v>
       </c>
       <c r="H71" s="5">
-        <v>150</v>
-      </c>
-      <c r="I71" s="5">
-        <v>75</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="I71" s="5"/>
       <c r="J71" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -5331,24 +5347,24 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="5" t="s">
-        <v>981</v>
+        <v>128</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>980</v>
+        <v>647</v>
       </c>
       <c r="H72" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I72" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="I72" s="5">
+        <v>75</v>
+      </c>
       <c r="J72" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="5" t="s">
-        <v>982</v>
-      </c>
+      <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
@@ -5357,13 +5373,13 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>978</v>
-      </c>
       <c r="H73" s="5">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="4" t="s">
@@ -5372,7 +5388,9 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="5"/>
+      <c r="N73" s="5" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -5381,30 +5399,22 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="5" t="s">
-        <v>84</v>
+        <v>978</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>18</v>
+        <v>977</v>
       </c>
       <c r="H74" s="5">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L74" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="5"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
@@ -5413,22 +5423,30 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="5" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H75" s="5">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="5"/>
+      <c r="L75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
@@ -5437,17 +5455,17 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="5" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H76" s="5">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5461,17 +5479,17 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="5" t="s">
-        <v>919</v>
+        <v>203</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>918</v>
+        <v>55</v>
       </c>
       <c r="H77" s="5">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="4" t="s">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -5485,17 +5503,17 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="5" t="s">
-        <v>691</v>
+        <v>919</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>987</v>
+        <v>918</v>
       </c>
       <c r="H78" s="5">
         <v>400</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="4" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -5509,72 +5527,68 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="5" t="s">
-        <v>129</v>
+        <v>691</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>722</v>
+        <v>986</v>
       </c>
       <c r="H79" s="5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="L79" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="5"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="17"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>31</v>
+        <v>722</v>
       </c>
       <c r="H80" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I80" s="5">
-        <v>200</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I80" s="5"/>
       <c r="J80" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M80" s="4"/>
-      <c r="N80" s="5" t="s">
-        <v>644</v>
-      </c>
+      <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81" s="5">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I81" s="5">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>62</v>
@@ -5582,24 +5596,30 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="6"/>
       <c r="F82" s="5" t="s">
-        <v>775</v>
+        <v>92</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="H82" s="5">
+        <v>500</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1000</v>
+      </c>
       <c r="J82" s="4" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -5613,10 +5633,10 @@
       <c r="D83" s="6"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -5635,10 +5655,10 @@
       <c r="D84" s="6"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -5657,21 +5677,17 @@
       <c r="D85" s="6"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="H85" s="5">
-        <v>280</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K85" s="4" t="s">
         <v>694</v>
       </c>
+      <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="5"/>
@@ -5683,122 +5699,116 @@
       <c r="D86" s="6"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>739</v>
+        <v>474</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>740</v>
+        <v>1028</v>
       </c>
       <c r="H86" s="5">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="5"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="18"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="H87" s="5">
-        <v>50000</v>
+        <v>280</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K87" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="5" t="s">
-        <v>1013</v>
-      </c>
+      <c r="N87" s="5"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>898</v>
+        <v>739</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>896</v>
+        <v>740</v>
       </c>
       <c r="H88" s="5">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K88" s="4"/>
+        <v>556</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="5" t="s">
-        <v>897</v>
-      </c>
+      <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="5" t="s">
-        <v>85</v>
+        <v>671</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>107</v>
+        <v>670</v>
       </c>
       <c r="H89" s="5">
-        <v>200</v>
-      </c>
-      <c r="I89" s="5">
-        <v>250</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="I89" s="5"/>
       <c r="J89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L89" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="5" t="s">
-        <v>642</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="6"/>
       <c r="F90" s="5" t="s">
-        <v>962</v>
+        <v>898</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="H90" s="5"/>
+        <v>896</v>
+      </c>
+      <c r="H90" s="5">
+        <v>80</v>
+      </c>
       <c r="I90" s="5"/>
       <c r="J90" s="4" t="s">
         <v>65</v>
@@ -5807,22 +5817,24 @@
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="5" t="s">
-        <v>961</v>
+        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="6"/>
       <c r="F91" s="5" t="s">
-        <v>962</v>
+        <v>1024</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="H91" s="5"/>
+        <v>1023</v>
+      </c>
+      <c r="H91" s="5">
+        <v>200</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="4" t="s">
         <v>65</v>
@@ -5830,9 +5842,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="5" t="s">
-        <v>961</v>
-      </c>
+      <c r="N91" s="5"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
@@ -5841,80 +5851,80 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="5" t="s">
-        <v>641</v>
+        <v>85</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>640</v>
+        <v>107</v>
       </c>
       <c r="H92" s="5">
         <v>200</v>
       </c>
-      <c r="I92" s="5"/>
+      <c r="I92" s="5">
+        <v>250</v>
+      </c>
       <c r="J92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="L92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="N92" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="5"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H93" s="5">
-        <v>200</v>
-      </c>
-      <c r="I93" s="5">
-        <v>250</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="5" t="s">
-        <v>643</v>
+        <v>960</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>110</v>
+        <v>961</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>19</v>
+        <v>962</v>
       </c>
       <c r="H94" s="5">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="5"/>
+      <c r="N94" s="5" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
@@ -5923,19 +5933,21 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="5" t="s">
-        <v>998</v>
+        <v>641</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>999</v>
+        <v>640</v>
       </c>
       <c r="H95" s="5">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K95" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="5"/>
@@ -5947,22 +5959,30 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5" t="s">
-        <v>852</v>
+        <v>639</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>853</v>
+        <v>138</v>
       </c>
       <c r="H96" s="5">
-        <v>150</v>
-      </c>
-      <c r="I96" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="I96" s="5">
+        <v>250</v>
+      </c>
       <c r="J96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="L96" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="M96" s="4"/>
-      <c r="N96" s="5"/>
+      <c r="N96" s="5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
@@ -5971,17 +5991,17 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H97" s="5">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -5995,22 +6015,22 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="5" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="H98" s="5"/>
+        <v>998</v>
+      </c>
+      <c r="H98" s="5">
+        <v>135</v>
+      </c>
       <c r="I98" s="5"/>
       <c r="J98" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="5" t="s">
-        <v>961</v>
-      </c>
+      <c r="N98" s="5"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
@@ -6019,17 +6039,17 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="5" t="s">
-        <v>806</v>
+        <v>852</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>807</v>
+        <v>853</v>
       </c>
       <c r="H99" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -6043,71 +6063,65 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>590</v>
+        <v>141</v>
       </c>
       <c r="H100" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K100" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L100" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="5" t="s">
-        <v>591</v>
-      </c>
+      <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="5" t="s">
-        <v>920</v>
+        <v>1018</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="H101" s="5">
-        <v>200</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="4" t="s">
-        <v>694</v>
+        <v>65</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-      <c r="N101" s="5"/>
+      <c r="N101" s="5" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="6"/>
       <c r="F102" s="5" t="s">
-        <v>1001</v>
+        <v>806</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1000</v>
+        <v>807</v>
       </c>
       <c r="H102" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="4" t="s">
-        <v>993</v>
+        <v>63</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -6119,27 +6133,29 @@
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="5" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>729</v>
+        <v>590</v>
       </c>
       <c r="H103" s="5">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="4" t="s">
-        <v>556</v>
+        <v>68</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="L103" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="5" t="s">
-        <v>737</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -6149,21 +6165,19 @@
       <c r="D104" s="6"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
-        <v>738</v>
+        <v>920</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>730</v>
+        <v>921</v>
       </c>
       <c r="H104" s="5">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="K104" s="4" t="s">
         <v>694</v>
       </c>
+      <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="5"/>
@@ -6173,21 +6187,19 @@
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>131</v>
+        <v>1000</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>56</v>
+        <v>999</v>
       </c>
       <c r="H105" s="5">
-        <v>80</v>
-      </c>
-      <c r="I105" s="5">
-        <v>120</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I105" s="5"/>
       <c r="J105" s="4" t="s">
-        <v>63</v>
+        <v>992</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -6198,28 +6210,28 @@
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>27</v>
+        <v>729</v>
       </c>
       <c r="H106" s="5">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="4" t="s">
-        <v>64</v>
+        <v>556</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>67</v>
+        <v>694</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="5" t="s">
-        <v>592</v>
+        <v>737</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -6227,30 +6239,26 @@
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>661</v>
+        <v>730</v>
       </c>
       <c r="H107" s="5">
-        <v>500</v>
-      </c>
-      <c r="I107" s="5">
-        <v>400</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="I107" s="5"/>
       <c r="J107" s="4" t="s">
-        <v>68</v>
+        <v>556</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="5" t="s">
-        <v>662</v>
-      </c>
+      <c r="N107" s="5"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
@@ -6259,21 +6267,21 @@
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="5" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H108" s="5">
-        <v>400</v>
-      </c>
-      <c r="I108" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I108" s="5">
+        <v>120</v>
+      </c>
       <c r="J108" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K108" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="5"/>
@@ -6282,28 +6290,28 @@
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="6"/>
       <c r="F109" s="5" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>996</v>
+        <v>27</v>
       </c>
       <c r="H109" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I109" s="5">
-        <v>4300</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="I109" s="5"/>
       <c r="J109" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="K109" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="5" t="s">
-        <v>997</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -6313,22 +6321,28 @@
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="5" t="s">
-        <v>86</v>
+        <v>660</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>21</v>
+        <v>661</v>
       </c>
       <c r="H110" s="5">
-        <v>600</v>
-      </c>
-      <c r="I110" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="I110" s="5">
+        <v>400</v>
+      </c>
       <c r="J110" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K110" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
@@ -6337,19 +6351,21 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="5" t="s">
-        <v>1020</v>
+        <v>109</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>1018</v>
+        <v>20</v>
       </c>
       <c r="H111" s="5">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="K111" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="5"/>
@@ -6361,22 +6377,26 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>57</v>
+        <v>995</v>
       </c>
       <c r="H112" s="5">
-        <v>120</v>
-      </c>
-      <c r="I112" s="5"/>
+        <v>2500</v>
+      </c>
+      <c r="I112" s="5">
+        <v>4300</v>
+      </c>
       <c r="J112" s="4" t="s">
-        <v>63</v>
+        <v>992</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="5"/>
+      <c r="N112" s="5" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
@@ -6385,14 +6405,18 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="5" t="s">
-        <v>751</v>
+        <v>86</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="H113" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="H113" s="5">
+        <v>600</v>
+      </c>
       <c r="I113" s="5"/>
-      <c r="J113" s="4"/>
+      <c r="J113" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
@@ -6405,23 +6429,19 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="5" t="s">
-        <v>94</v>
+        <v>1019</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>36</v>
+        <v>1017</v>
       </c>
       <c r="H114" s="5">
-        <v>30</v>
-      </c>
-      <c r="I114" s="5">
-        <v>75</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I114" s="5"/>
       <c r="J114" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="5"/>
@@ -6433,46 +6453,38 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="5" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>372</v>
+        <v>57</v>
       </c>
       <c r="H115" s="5">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="N115" s="5"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="6"/>
       <c r="F116" s="5" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="H116" s="5">
-        <v>350</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -6485,71 +6497,75 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I117" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I117" s="5">
+        <v>75</v>
+      </c>
       <c r="J117" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K117" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="5" t="s">
-        <v>984</v>
+        <v>90</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>983</v>
+        <v>372</v>
       </c>
       <c r="H118" s="5">
         <v>200</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K118" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="5"/>
+      <c r="N118" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="E119" s="5"/>
       <c r="F119" s="5" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
       <c r="H119" s="5">
-        <v>30</v>
-      </c>
-      <c r="I119" s="5">
-        <v>60</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="I119" s="5"/>
       <c r="J119" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="5"/>
@@ -6561,13 +6577,13 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120" s="5">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="4" t="s">
@@ -6580,26 +6596,24 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="5" t="s">
-        <v>108</v>
+        <v>983</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>22</v>
+        <v>982</v>
       </c>
       <c r="H121" s="5">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="5"/>
@@ -6611,49 +6625,47 @@
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="5" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="H122" s="5">
-        <v>100</v>
-      </c>
-      <c r="I122" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I122" s="5">
+        <v>60</v>
+      </c>
       <c r="J122" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="N122" s="5"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="6"/>
       <c r="F123" s="5" t="s">
-        <v>727</v>
+        <v>114</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>726</v>
+        <v>34</v>
       </c>
       <c r="H123" s="5">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="5"/>
@@ -6665,19 +6677,21 @@
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="H124" s="5">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K124" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="5"/>
@@ -6689,41 +6703,45 @@
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="5" t="s">
-        <v>753</v>
+        <v>636</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>754</v>
+        <v>638</v>
       </c>
       <c r="H125" s="5">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="K125" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="5"/>
+      <c r="N125" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>915</v>
+        <v>727</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>917</v>
+        <v>726</v>
       </c>
       <c r="H126" s="5">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="4" t="s">
-        <v>916</v>
+        <v>417</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>694</v>
@@ -6739,21 +6757,19 @@
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="H127" s="5">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K127" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="5"/>
@@ -6765,17 +6781,17 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="5" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>995</v>
+        <v>754</v>
       </c>
       <c r="H128" s="5">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="4" t="s">
-        <v>993</v>
+        <v>755</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -6789,28 +6805,24 @@
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="5" t="s">
-        <v>106</v>
+        <v>915</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>23</v>
+        <v>917</v>
       </c>
       <c r="H129" s="5">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="4" t="s">
-        <v>61</v>
+        <v>916</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>556</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="4"/>
-      <c r="N129" s="5" t="s">
-        <v>652</v>
-      </c>
+      <c r="N129" s="5"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
@@ -6819,19 +6831,21 @@
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H130" s="5">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="5"/>
@@ -6843,17 +6857,17 @@
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="5" t="s">
-        <v>93</v>
+        <v>797</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>35</v>
+        <v>994</v>
       </c>
       <c r="H131" s="5">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="4" t="s">
-        <v>62</v>
+        <v>992</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -6867,18 +6881,28 @@
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="5" t="s">
-        <v>749</v>
+        <v>106</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="H132" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="H132" s="5">
+        <v>80</v>
+      </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="J132" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="M132" s="4"/>
-      <c r="N132" s="5"/>
+      <c r="N132" s="5" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
@@ -6887,27 +6911,21 @@
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H133" s="5">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M133" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
       <c r="N133" s="5"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6917,17 +6935,17 @@
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="5" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H134" s="5">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -6941,21 +6959,15 @@
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="5" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="H135" s="5">
-        <v>60</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K135" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="5"/>
@@ -6965,100 +6977,132 @@
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="6"/>
       <c r="F136" s="5" t="s">
-        <v>805</v>
+        <v>87</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>803</v>
+        <v>24</v>
       </c>
       <c r="H136" s="5">
-        <v>200</v>
-      </c>
-      <c r="I136" s="5">
-        <v>75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I136" s="5"/>
       <c r="J136" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="5" t="s">
-        <v>804</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="6"/>
       <c r="F137" s="5" t="s">
-        <v>957</v>
+        <v>205</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="H137" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="H137" s="5">
+        <v>60</v>
+      </c>
       <c r="I137" s="5"/>
       <c r="J137" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
-      <c r="N137" s="5" t="s">
-        <v>961</v>
-      </c>
+      <c r="N137" s="5"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H138" s="5">
+        <v>60</v>
+      </c>
       <c r="I138" s="5"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
+      <c r="J138" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="4"/>
+      <c r="F139" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="H139" s="5">
+        <v>200</v>
+      </c>
+      <c r="I139" s="5">
+        <v>75</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
-      <c r="N139" s="5"/>
+      <c r="N139" s="5" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>1022</v>
+      </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="4"/>
+      <c r="J140" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
-      <c r="N140" s="5"/>
+      <c r="N140" s="5" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
@@ -16149,6 +16193,11 @@
       <c r="N708" s="5"/>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A709" s="5"/>
+      <c r="B709" s="5"/>
+      <c r="C709" s="5"/>
+      <c r="D709" s="6"/>
+      <c r="E709" s="5"/>
       <c r="F709" s="5"/>
       <c r="G709" s="5"/>
       <c r="H709" s="5"/>
@@ -16160,6 +16209,11 @@
       <c r="N709" s="5"/>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A710" s="5"/>
+      <c r="B710" s="5"/>
+      <c r="C710" s="5"/>
+      <c r="D710" s="6"/>
+      <c r="E710" s="5"/>
       <c r="F710" s="5"/>
       <c r="G710" s="5"/>
       <c r="H710" s="5"/>
@@ -16171,6 +16225,11 @@
       <c r="N710" s="5"/>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A711" s="5"/>
+      <c r="B711" s="5"/>
+      <c r="C711" s="5"/>
+      <c r="D711" s="6"/>
+      <c r="E711" s="5"/>
       <c r="F711" s="5"/>
       <c r="G711" s="5"/>
       <c r="H711" s="5"/>
@@ -16235,6 +16294,39 @@
       <c r="L716" s="4"/>
       <c r="M716" s="4"/>
       <c r="N716" s="5"/>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F717" s="5"/>
+      <c r="G717" s="5"/>
+      <c r="H717" s="5"/>
+      <c r="I717" s="5"/>
+      <c r="J717" s="4"/>
+      <c r="K717" s="4"/>
+      <c r="L717" s="4"/>
+      <c r="M717" s="4"/>
+      <c r="N717" s="5"/>
+    </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F718" s="5"/>
+      <c r="G718" s="5"/>
+      <c r="H718" s="5"/>
+      <c r="I718" s="5"/>
+      <c r="J718" s="4"/>
+      <c r="K718" s="4"/>
+      <c r="L718" s="4"/>
+      <c r="M718" s="4"/>
+      <c r="N718" s="5"/>
+    </row>
+    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F719" s="5"/>
+      <c r="G719" s="5"/>
+      <c r="H719" s="5"/>
+      <c r="I719" s="5"/>
+      <c r="J719" s="4"/>
+      <c r="K719" s="4"/>
+      <c r="L719" s="4"/>
+      <c r="M719" s="4"/>
+      <c r="N719" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16398,10 +16490,10 @@
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>1007</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1008</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>474</v>
@@ -26009,7 +26101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L671"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
@@ -26494,7 +26586,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -26669,10 +26761,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>65</v>
@@ -26817,10 +26909,10 @@
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>65</v>
@@ -26842,7 +26934,7 @@
         <v>189</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>61</v>
@@ -26854,7 +26946,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -26863,10 +26955,10 @@
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>1022</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>63</v>
@@ -26876,7 +26968,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -27082,7 +27174,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -27226,7 +27318,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -55522,7 +55614,7 @@
         <v>808</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>63</v>
@@ -55846,13 +55938,13 @@
         <v>581</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -56928,7 +57020,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -58161,10 +58253,10 @@
       <c r="C143" s="17"/>
       <c r="D143" s="6"/>
       <c r="E143" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>65</v>
@@ -58174,7 +58266,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -58183,10 +58275,10 @@
       <c r="C144" s="17"/>
       <c r="D144" s="6"/>
       <c r="E144" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>65</v>
@@ -58203,10 +58295,10 @@
       <c r="C145" s="7"/>
       <c r="D145" s="6"/>
       <c r="E145" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>63</v>
@@ -58223,10 +58315,10 @@
       <c r="C146" s="7"/>
       <c r="D146" s="6"/>
       <c r="E146" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>63</v>

--- a/KeepFeatureChecklist.xlsx
+++ b/KeepFeatureChecklist.xlsx
@@ -19,13 +19,15 @@
     <sheet name="Brush Entities" sheetId="4" r:id="rId5"/>
     <sheet name="Point Entities" sheetId="5" r:id="rId6"/>
     <sheet name="Full List Per Mod" sheetId="8" r:id="rId7"/>
+    <sheet name="Mod Inclusion Checklist" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brush Entities'!$A$1:$L$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemies!$A$2:$N$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Full List Per Mod'!$A$1:$B$409</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$A$2:$L$207</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Point Entities'!$A$2:$L$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Traps!$A$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Weapons!$A$2:$L$2</definedName>
   </definedNames>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1104">
   <si>
     <t>KEEP - ENEMIES TO INCLUDE</t>
   </si>
@@ -3131,13 +3133,238 @@
   </si>
   <si>
     <t>monster_nehahra</t>
+  </si>
+  <si>
+    <t>trigger_enemy</t>
+  </si>
+  <si>
+    <t>Trigger Enemy</t>
+  </si>
+  <si>
+    <t>trigger_victory</t>
+  </si>
+  <si>
+    <t>Trigger Victory</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Hipnotic (Mission Pack 1)</t>
+  </si>
+  <si>
+    <t>KEEP - MODS AND GAMES INCLUDED</t>
+  </si>
+  <si>
+    <t>Mod or Game Name</t>
+  </si>
+  <si>
+    <t>Rogue (Mission Pack 2)</t>
+  </si>
+  <si>
+    <t>Heretic II</t>
+  </si>
+  <si>
+    <t>Kinn (Marcher &amp; Bastion)</t>
+  </si>
+  <si>
+    <t>Not adding more.  Excluded quite a few DarkPlaces specific effects and cvars.</t>
+  </si>
+  <si>
+    <t>extras_r4 &amp; extras_r5</t>
+  </si>
+  <si>
+    <t>Includes khreathor's updates</t>
+  </si>
+  <si>
+    <t>AoA (Arms of Asgaard)</t>
+  </si>
+  <si>
+    <t>Heavily modified by ryanscissorhands specifically for Keep</t>
+  </si>
+  <si>
+    <t>back2forwards</t>
+  </si>
+  <si>
+    <t>monster_hell_pointknight</t>
+  </si>
+  <si>
+    <t>Electrical Death Knight</t>
+  </si>
+  <si>
+    <t>monster_hell_knight</t>
+  </si>
+  <si>
+    <t>monster_hell_knight_enforcer</t>
+  </si>
+  <si>
+    <t>Saber Enforcer</t>
+  </si>
+  <si>
+    <t>Enforcer with a light saber</t>
+  </si>
+  <si>
+    <t>ITS (In The Shadows)</t>
+  </si>
+  <si>
+    <t>Kurok</t>
+  </si>
+  <si>
+    <t>Likely not going to include the stealth mode and amulet.</t>
+  </si>
+  <si>
+    <t>Not adding more.  Quoth 2.2 source not available.</t>
+  </si>
+  <si>
+    <t>The Lieutenant</t>
+  </si>
+  <si>
+    <t>Stuff from the author of lthsp3 and back2forwards</t>
+  </si>
+  <si>
+    <t>Random Community Contributions</t>
+  </si>
+  <si>
+    <t>Madfox</t>
+  </si>
+  <si>
+    <t>Cool stuff from madfox, lots of different enemies and effects.</t>
+  </si>
+  <si>
+    <t>Keep Extras - Not Directly Used by Mod</t>
+  </si>
+  <si>
+    <t>Useful models for decorations and sounds for custom effects.</t>
+  </si>
+  <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>OUM (Operation Urth Majik)</t>
+  </si>
+  <si>
+    <t>Don't have swinging gate, fast zombies, prox mines, or specialty angels.</t>
+  </si>
+  <si>
+    <t>Don't have the dispensers/healthpanels, turret incomplete</t>
+  </si>
+  <si>
+    <t>Ravenkeep</t>
+  </si>
+  <si>
+    <t>Lots of great stuff, need to add</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Rubicon + Rubicon 2 + RRP</t>
+  </si>
+  <si>
+    <t>Need misc_flag, func_turret incomplete.</t>
+  </si>
+  <si>
+    <t>Need to finish adding uber scrag, incomplete.  Need monster_azoth</t>
+  </si>
+  <si>
+    <t>Arcane Dimensions (AD 1.81)</t>
+  </si>
+  <si>
+    <t>Gyro 2 Physics</t>
+  </si>
+  <si>
+    <t>Vigil</t>
+  </si>
+  <si>
+    <t>misc_deadplayer</t>
+  </si>
+  <si>
+    <t>Corpse Player</t>
+  </si>
+  <si>
+    <t>Trigger Congratulations</t>
+  </si>
+  <si>
+    <t>trigger_vigend</t>
+  </si>
+  <si>
+    <t>Drake (Includes SOE, Rapture, Unforgiven, Something Wicked)</t>
+  </si>
+  <si>
+    <t>Twisted Christmas</t>
+  </si>
+  <si>
+    <t>Included in AD.</t>
+  </si>
+  <si>
+    <t>tfl4</t>
+  </si>
+  <si>
+    <t>Rotating object hack.  Included for posterity.</t>
+  </si>
+  <si>
+    <t>tefdbl3</t>
+  </si>
+  <si>
+    <t>Cool black widow spider, aka redback</t>
+  </si>
+  <si>
+    <t>AD Test Map</t>
+  </si>
+  <si>
+    <t>test_trigger_fog</t>
+  </si>
+  <si>
+    <t>test_treleporter</t>
+  </si>
+  <si>
+    <t>test_angletarget</t>
+  </si>
+  <si>
+    <t>test_artifact_blastbelt</t>
+  </si>
+  <si>
+    <t>test_artifact_jboots</t>
+  </si>
+  <si>
+    <t>test_artifact_lavashield</t>
+  </si>
+  <si>
+    <t>test_corpsemodel</t>
+  </si>
+  <si>
+    <t>test_func_breakable_flesh</t>
+  </si>
+  <si>
+    <t>test_func_train</t>
+  </si>
+  <si>
+    <t>test_marshlight</t>
+  </si>
+  <si>
+    <t>test_misc_camera</t>
+  </si>
+  <si>
+    <t>test_misc_gibfountain</t>
+  </si>
+  <si>
+    <t>monster_spellmaster</t>
+  </si>
+  <si>
+    <t>This was in Madfox's Phantom Pholly map</t>
+  </si>
+  <si>
+    <t>Baseboss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3161,6 +3388,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3192,7 +3435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3228,11 +3471,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3265,6 +3545,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3545,11 +3858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N719"/>
+  <dimension ref="A1:N722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,11 +3872,12 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="63.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="10.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="85" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5064,7 +5378,7 @@
         <v>105</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>656</v>
+        <v>1049</v>
       </c>
       <c r="H61" s="5">
         <v>250</v>
@@ -5115,49 +5429,57 @@
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="6"/>
       <c r="F63" s="5" t="s">
-        <v>779</v>
+        <v>1051</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>777</v>
+        <v>1050</v>
       </c>
       <c r="H63" s="5">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="4" t="s">
-        <v>694</v>
+        <v>1046</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="5" t="s">
-        <v>797</v>
+        <v>1048</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>796</v>
+        <v>1047</v>
       </c>
       <c r="H64" s="5">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="N64" s="5" t="s">
-        <v>923</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5165,21 +5487,19 @@
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>649</v>
+        <v>779</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>52</v>
+        <v>777</v>
       </c>
       <c r="H65" s="5">
-        <v>200</v>
-      </c>
-      <c r="I65" s="5">
-        <v>250</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="I65" s="5"/>
       <c r="J65" s="4" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -5191,26 +5511,26 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>650</v>
+        <v>797</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>53</v>
+        <v>796</v>
       </c>
       <c r="H66" s="5">
-        <v>300</v>
-      </c>
-      <c r="I66" s="5">
-        <v>350</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="4" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -5219,10 +5539,10 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H67" s="5">
         <v>200</v>
@@ -5245,26 +5565,24 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="5" t="s">
-        <v>926</v>
+        <v>650</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H68" s="5">
+        <v>300</v>
+      </c>
+      <c r="I68" s="5">
+        <v>350</v>
+      </c>
       <c r="J68" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>928</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="5" t="s">
-        <v>929</v>
-      </c>
+      <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
@@ -5273,15 +5591,17 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="5" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>675</v>
+        <v>54</v>
       </c>
       <c r="H69" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I69" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="I69" s="5">
+        <v>250</v>
+      </c>
       <c r="J69" s="4" t="s">
         <v>63</v>
       </c>
@@ -5297,23 +5617,25 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="5" t="s">
-        <v>118</v>
+        <v>926</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="H70" s="5">
-        <v>80</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+        <v>914</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>928</v>
+      </c>
       <c r="M70" s="4"/>
       <c r="N70" s="5" t="s">
-        <v>119</v>
+        <v>929</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -5323,17 +5645,17 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="5" t="s">
-        <v>1027</v>
+        <v>674</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1026</v>
+        <v>675</v>
       </c>
       <c r="H71" s="5">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -5347,24 +5669,24 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H72" s="5">
-        <v>150</v>
-      </c>
-      <c r="I72" s="5">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
@@ -5373,24 +5695,22 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="5" t="s">
-        <v>980</v>
+        <v>1027</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>979</v>
+        <v>1026</v>
       </c>
       <c r="H73" s="5">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="5" t="s">
-        <v>981</v>
-      </c>
+      <c r="N73" s="5"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -5399,15 +5719,17 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="5" t="s">
-        <v>978</v>
+        <v>128</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>977</v>
+        <v>647</v>
       </c>
       <c r="H74" s="5">
-        <v>600</v>
-      </c>
-      <c r="I74" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="I74" s="5">
+        <v>75</v>
+      </c>
       <c r="J74" s="4" t="s">
         <v>63</v>
       </c>
@@ -5423,29 +5745,23 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="5" t="s">
-        <v>84</v>
+        <v>980</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>18</v>
+        <v>979</v>
       </c>
       <c r="H75" s="5">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L75" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>556</v>
-      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
       <c r="N75" s="5" t="s">
-        <v>116</v>
+        <v>981</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5455,17 +5771,17 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="5" t="s">
-        <v>112</v>
+        <v>978</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>30</v>
+        <v>977</v>
       </c>
       <c r="H76" s="5">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5479,22 +5795,30 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="5" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H77" s="5">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="5"/>
+      <c r="M77" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
@@ -5503,17 +5827,17 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="5" t="s">
-        <v>919</v>
+        <v>112</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>918</v>
+        <v>30</v>
       </c>
       <c r="H78" s="5">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="4" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -5527,13 +5851,13 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="5" t="s">
-        <v>691</v>
+        <v>203</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>986</v>
+        <v>55</v>
       </c>
       <c r="H79" s="5">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="4" t="s">
@@ -5551,54 +5875,46 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="5" t="s">
-        <v>129</v>
+        <v>919</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>722</v>
+        <v>918</v>
       </c>
       <c r="H80" s="5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K80" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="L80" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="17"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="5" t="s">
-        <v>144</v>
+        <v>691</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>31</v>
+        <v>986</v>
       </c>
       <c r="H81" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I81" s="5">
-        <v>200</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="I81" s="5"/>
       <c r="J81" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="5" t="s">
-        <v>644</v>
-      </c>
+      <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
@@ -5607,63 +5923,75 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="5" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>32</v>
+        <v>722</v>
       </c>
       <c r="H82" s="5">
         <v>500</v>
       </c>
-      <c r="I82" s="5">
-        <v>1000</v>
-      </c>
+      <c r="I82" s="5"/>
       <c r="J82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="5" t="s">
-        <v>775</v>
+        <v>144</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="5">
+        <v>200</v>
+      </c>
       <c r="J83" s="4" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="5" t="s">
-        <v>774</v>
+        <v>92</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="H84" s="5">
+        <v>500</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1000</v>
+      </c>
       <c r="J84" s="4" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -5677,10 +6005,10 @@
       <c r="D85" s="6"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -5699,17 +6027,15 @@
       <c r="D86" s="6"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>474</v>
+        <v>774</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H86" s="5">
-        <v>2000</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="4" t="s">
-        <v>474</v>
+        <v>694</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -5723,21 +6049,17 @@
       <c r="D87" s="6"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="H87" s="5">
-        <v>280</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K87" s="4" t="s">
         <v>694</v>
       </c>
+      <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="5"/>
@@ -5749,146 +6071,142 @@
       <c r="D88" s="6"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>739</v>
+        <v>474</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>740</v>
+        <v>1028</v>
       </c>
       <c r="H88" s="5">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="H89" s="5">
-        <v>50000</v>
+        <v>280</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K89" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="5" t="s">
-        <v>1012</v>
-      </c>
+      <c r="N89" s="5"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>898</v>
+        <v>739</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>896</v>
+        <v>740</v>
       </c>
       <c r="H90" s="5">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K90" s="4"/>
+        <v>556</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="5" t="s">
-        <v>897</v>
-      </c>
+      <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="5" t="s">
-        <v>1024</v>
+        <v>671</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1023</v>
+        <v>670</v>
       </c>
       <c r="H91" s="5">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="5"/>
+      <c r="N91" s="5" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="5" t="s">
-        <v>85</v>
+        <v>898</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>107</v>
+        <v>896</v>
       </c>
       <c r="H92" s="5">
-        <v>200</v>
-      </c>
-      <c r="I92" s="5">
-        <v>250</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I92" s="5"/>
       <c r="J92" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="5" t="s">
-        <v>642</v>
+        <v>897</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="6"/>
       <c r="F93" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="H93" s="5"/>
+        <v>1023</v>
+      </c>
+      <c r="H93" s="5">
+        <v>200</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="4" t="s">
         <v>65</v>
@@ -5896,92 +6214,88 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="5" t="s">
-        <v>960</v>
-      </c>
+      <c r="N93" s="5"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="6"/>
       <c r="F94" s="5" t="s">
-        <v>961</v>
+        <v>85</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>962</v>
+        <v>107</v>
       </c>
       <c r="H94" s="5">
         <v>200</v>
       </c>
-      <c r="I94" s="5"/>
+      <c r="I94" s="5">
+        <v>250</v>
+      </c>
       <c r="J94" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="5" t="s">
-        <v>960</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>641</v>
+        <v>1025</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="H95" s="5">
-        <v>200</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K95" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="5"/>
+      <c r="N95" s="5" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>639</v>
+        <v>961</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>138</v>
+        <v>962</v>
       </c>
       <c r="H96" s="5">
         <v>200</v>
       </c>
-      <c r="I96" s="5">
-        <v>250</v>
-      </c>
+      <c r="I96" s="5"/>
       <c r="J96" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L96" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="5" t="s">
-        <v>643</v>
+        <v>960</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5991,19 +6305,21 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="5" t="s">
-        <v>110</v>
+        <v>641</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>19</v>
+        <v>640</v>
       </c>
       <c r="H97" s="5">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K97" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="5"/>
@@ -6015,22 +6331,30 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="5" t="s">
-        <v>997</v>
+        <v>639</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>998</v>
+        <v>138</v>
       </c>
       <c r="H98" s="5">
-        <v>135</v>
-      </c>
-      <c r="I98" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="I98" s="5">
+        <v>250</v>
+      </c>
       <c r="J98" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="M98" s="4"/>
-      <c r="N98" s="5"/>
+      <c r="N98" s="5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
@@ -6039,17 +6363,17 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="5" t="s">
-        <v>852</v>
+        <v>110</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>853</v>
+        <v>19</v>
       </c>
       <c r="H99" s="5">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -6063,17 +6387,17 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="5" t="s">
-        <v>140</v>
+        <v>997</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>141</v>
+        <v>998</v>
       </c>
       <c r="H100" s="5">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -6087,22 +6411,22 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="5" t="s">
-        <v>1018</v>
+        <v>852</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="H101" s="5"/>
+        <v>853</v>
+      </c>
+      <c r="H101" s="5">
+        <v>150</v>
+      </c>
       <c r="I101" s="5"/>
       <c r="J101" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-      <c r="N101" s="5" t="s">
-        <v>960</v>
-      </c>
+      <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
@@ -6111,17 +6435,17 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="5" t="s">
-        <v>806</v>
+        <v>140</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>807</v>
+        <v>141</v>
       </c>
       <c r="H102" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -6135,27 +6459,21 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="5" t="s">
-        <v>130</v>
+        <v>1018</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="H103" s="5">
-        <v>100</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="5" t="s">
-        <v>591</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -6163,19 +6481,19 @@
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="6"/>
       <c r="F104" s="5" t="s">
-        <v>920</v>
+        <v>806</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>921</v>
+        <v>807</v>
       </c>
       <c r="H104" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="4" t="s">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -6187,24 +6505,30 @@
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="5" t="s">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>999</v>
+        <v>590</v>
       </c>
       <c r="H105" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M105" s="4"/>
-      <c r="N105" s="5"/>
+      <c r="N105" s="5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
@@ -6213,26 +6537,22 @@
       <c r="D106" s="6"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>91</v>
+        <v>920</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>729</v>
+        <v>921</v>
       </c>
       <c r="H106" s="5">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="K106" s="4" t="s">
         <v>694</v>
       </c>
+      <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="5" t="s">
-        <v>737</v>
-      </c>
+      <c r="N106" s="5"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
@@ -6241,21 +6561,19 @@
       <c r="D107" s="6"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>738</v>
+        <v>1000</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>730</v>
+        <v>999</v>
       </c>
       <c r="H107" s="5">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="5"/>
@@ -6265,54 +6583,54 @@
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>56</v>
+        <v>729</v>
       </c>
       <c r="H108" s="5">
-        <v>80</v>
-      </c>
-      <c r="I108" s="5">
-        <v>120</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="I108" s="5"/>
       <c r="J108" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K108" s="4"/>
+        <v>556</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="5"/>
+      <c r="N108" s="5" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
-        <v>139</v>
+        <v>738</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>27</v>
+        <v>730</v>
       </c>
       <c r="H109" s="5">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="4" t="s">
-        <v>64</v>
+        <v>556</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>67</v>
+        <v>694</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="N109" s="5"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
@@ -6321,54 +6639,52 @@
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="5" t="s">
-        <v>660</v>
+        <v>131</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>661</v>
+        <v>56</v>
       </c>
       <c r="H110" s="5">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="I110" s="5">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K110" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="5" t="s">
-        <v>662</v>
-      </c>
+      <c r="N110" s="5"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="6"/>
       <c r="F111" s="5" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H111" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="5"/>
+      <c r="N111" s="5" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
@@ -6377,25 +6693,27 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5" t="s">
-        <v>109</v>
+        <v>660</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>995</v>
+        <v>661</v>
       </c>
       <c r="H112" s="5">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="I112" s="5">
-        <v>4300</v>
+        <v>400</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="K112" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="5" t="s">
-        <v>996</v>
+        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -6405,19 +6723,21 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="5" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H113" s="5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K113" s="4"/>
+      <c r="K113" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
@@ -6429,22 +6749,26 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="5" t="s">
-        <v>1019</v>
+        <v>109</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="H114" s="5">
-        <v>150</v>
-      </c>
-      <c r="I114" s="5"/>
+        <v>2500</v>
+      </c>
+      <c r="I114" s="5">
+        <v>4300</v>
+      </c>
       <c r="J114" s="4" t="s">
-        <v>914</v>
+        <v>992</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="5"/>
+      <c r="N114" s="5" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
@@ -6453,17 +6777,17 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="5" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H115" s="5">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -6477,14 +6801,18 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="5" t="s">
-        <v>751</v>
+        <v>1019</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="H116" s="5"/>
+        <v>1017</v>
+      </c>
+      <c r="H116" s="5">
+        <v>150</v>
+      </c>
       <c r="I116" s="5"/>
-      <c r="J116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -6497,23 +6825,19 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="5" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H117" s="5">
-        <v>30</v>
-      </c>
-      <c r="I117" s="5">
-        <v>75</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I117" s="5"/>
       <c r="J117" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K117" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="5"/>
@@ -6525,50 +6849,44 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="5" t="s">
-        <v>90</v>
+        <v>751</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="H118" s="5">
-        <v>200</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="N118" s="5"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="5" t="s">
-        <v>724</v>
+        <v>1103</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>723</v>
+        <v>1101</v>
       </c>
       <c r="H119" s="5">
-        <v>350</v>
+        <v>2400</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="4" t="s">
-        <v>66</v>
+        <v>1060</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="5"/>
+      <c r="N119" s="5" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
@@ -6577,71 +6895,75 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H120" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I120" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I120" s="5">
+        <v>75</v>
+      </c>
       <c r="J120" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K120" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="5"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="5" t="s">
-        <v>983</v>
+        <v>90</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>982</v>
+        <v>372</v>
       </c>
       <c r="H121" s="5">
         <v>200</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K121" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="5"/>
+      <c r="N121" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
+      <c r="E122" s="5"/>
       <c r="F122" s="5" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
       <c r="H122" s="5">
-        <v>30</v>
-      </c>
-      <c r="I122" s="5">
-        <v>60</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="I122" s="5"/>
       <c r="J122" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="5"/>
@@ -6653,13 +6975,13 @@
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123" s="5">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="4" t="s">
@@ -6672,26 +6994,24 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="5" t="s">
-        <v>108</v>
+        <v>983</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>22</v>
+        <v>982</v>
       </c>
       <c r="H124" s="5">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="5"/>
@@ -6703,49 +7023,47 @@
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="5" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="H125" s="5">
-        <v>100</v>
-      </c>
-      <c r="I125" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I125" s="5">
+        <v>60</v>
+      </c>
       <c r="J125" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="N125" s="5"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="6"/>
       <c r="F126" s="5" t="s">
-        <v>727</v>
+        <v>114</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>726</v>
+        <v>34</v>
       </c>
       <c r="H126" s="5">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>694</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="5"/>
@@ -6757,19 +7075,21 @@
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="H127" s="5">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K127" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="5"/>
@@ -6781,41 +7101,45 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="5" t="s">
-        <v>753</v>
+        <v>636</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>754</v>
+        <v>638</v>
       </c>
       <c r="H128" s="5">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="K128" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
-      <c r="N128" s="5"/>
+      <c r="N128" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="5" t="s">
-        <v>915</v>
+        <v>727</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>917</v>
+        <v>726</v>
       </c>
       <c r="H129" s="5">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="4" t="s">
-        <v>916</v>
+        <v>417</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>694</v>
@@ -6831,21 +7155,19 @@
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="H130" s="5">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="5"/>
@@ -6857,17 +7179,17 @@
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="5" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>994</v>
+        <v>754</v>
       </c>
       <c r="H131" s="5">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="4" t="s">
-        <v>992</v>
+        <v>755</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -6881,28 +7203,24 @@
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="5" t="s">
-        <v>106</v>
+        <v>915</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>23</v>
+        <v>917</v>
       </c>
       <c r="H132" s="5">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="4" t="s">
-        <v>61</v>
+        <v>916</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>556</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="4"/>
-      <c r="N132" s="5" t="s">
-        <v>652</v>
-      </c>
+      <c r="N132" s="5"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
@@ -6911,19 +7229,21 @@
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H133" s="5">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="5"/>
@@ -6935,17 +7255,17 @@
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="5" t="s">
-        <v>93</v>
+        <v>797</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>35</v>
+        <v>994</v>
       </c>
       <c r="H134" s="5">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="4" t="s">
-        <v>62</v>
+        <v>992</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -6959,18 +7279,28 @@
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="5" t="s">
-        <v>749</v>
+        <v>106</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="H135" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="H135" s="5">
+        <v>80</v>
+      </c>
       <c r="I135" s="5"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="J135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="M135" s="4"/>
-      <c r="N135" s="5"/>
+      <c r="N135" s="5" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
@@ -6979,27 +7309,21 @@
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H136" s="5">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M136" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
       <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -7009,17 +7333,17 @@
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="5" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H137" s="5">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -7033,21 +7357,15 @@
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="5" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="H138" s="5">
-        <v>60</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="5"/>
@@ -7057,100 +7375,132 @@
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="5"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="5" t="s">
-        <v>805</v>
+        <v>87</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>803</v>
+        <v>24</v>
       </c>
       <c r="H139" s="5">
-        <v>200</v>
-      </c>
-      <c r="I139" s="5">
-        <v>75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I139" s="5"/>
       <c r="J139" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="5" t="s">
-        <v>804</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="5"/>
+      <c r="E140" s="6"/>
       <c r="F140" s="5" t="s">
-        <v>957</v>
+        <v>205</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H140" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="H140" s="5">
+        <v>60</v>
+      </c>
       <c r="I140" s="5"/>
       <c r="J140" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
-      <c r="N140" s="5" t="s">
-        <v>960</v>
-      </c>
+      <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H141" s="5">
+        <v>60</v>
+      </c>
       <c r="I141" s="5"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
+      <c r="J141" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="6"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="4"/>
+      <c r="F142" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="H142" s="5">
+        <v>200</v>
+      </c>
+      <c r="I142" s="5">
+        <v>75</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="5"/>
+      <c r="N142" s="5" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="6"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="F143" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>1022</v>
+      </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="4"/>
+      <c r="J143" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="5"/>
+      <c r="N143" s="5" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
@@ -16241,6 +16591,11 @@
       <c r="N711" s="5"/>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A712" s="5"/>
+      <c r="B712" s="5"/>
+      <c r="C712" s="5"/>
+      <c r="D712" s="6"/>
+      <c r="E712" s="5"/>
       <c r="F712" s="5"/>
       <c r="G712" s="5"/>
       <c r="H712" s="5"/>
@@ -16252,6 +16607,11 @@
       <c r="N712" s="5"/>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A713" s="5"/>
+      <c r="B713" s="5"/>
+      <c r="C713" s="5"/>
+      <c r="D713" s="6"/>
+      <c r="E713" s="5"/>
       <c r="F713" s="5"/>
       <c r="G713" s="5"/>
       <c r="H713" s="5"/>
@@ -16263,6 +16623,11 @@
       <c r="N713" s="5"/>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A714" s="5"/>
+      <c r="B714" s="5"/>
+      <c r="C714" s="5"/>
+      <c r="D714" s="6"/>
+      <c r="E714" s="5"/>
       <c r="F714" s="5"/>
       <c r="G714" s="5"/>
       <c r="H714" s="5"/>
@@ -16327,6 +16692,39 @@
       <c r="L719" s="4"/>
       <c r="M719" s="4"/>
       <c r="N719" s="5"/>
+    </row>
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F720" s="5"/>
+      <c r="G720" s="5"/>
+      <c r="H720" s="5"/>
+      <c r="I720" s="5"/>
+      <c r="J720" s="4"/>
+      <c r="K720" s="4"/>
+      <c r="L720" s="4"/>
+      <c r="M720" s="4"/>
+      <c r="N720" s="5"/>
+    </row>
+    <row r="721" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F721" s="5"/>
+      <c r="G721" s="5"/>
+      <c r="H721" s="5"/>
+      <c r="I721" s="5"/>
+      <c r="J721" s="4"/>
+      <c r="K721" s="4"/>
+      <c r="L721" s="4"/>
+      <c r="M721" s="4"/>
+      <c r="N721" s="5"/>
+    </row>
+    <row r="722" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F722" s="5"/>
+      <c r="G722" s="5"/>
+      <c r="H722" s="5"/>
+      <c r="I722" s="5"/>
+      <c r="J722" s="4"/>
+      <c r="K722" s="4"/>
+      <c r="L722" s="4"/>
+      <c r="M722" s="4"/>
+      <c r="N722" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55319,11 +55717,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L632"/>
+  <dimension ref="A1:L636"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57575,17 +57973,17 @@
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>512</v>
+        <v>1078</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>330</v>
+        <v>1077</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>63</v>
+        <v>1076</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -57599,20 +57997,16 @@
       <c r="C111" s="7"/>
       <c r="D111" s="6"/>
       <c r="E111" s="5" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>756</v>
+        <v>330</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I111" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="5"/>
@@ -57623,18 +58017,20 @@
       <c r="C112" s="7"/>
       <c r="D112" s="6"/>
       <c r="E112" s="5" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>498</v>
+        <v>756</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>474</v>
       </c>
       <c r="H112" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="5"/>
@@ -57645,15 +58041,17 @@
       <c r="C113" s="7"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>328</v>
+        <v>498</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -57665,10 +58063,10 @@
       <c r="C114" s="7"/>
       <c r="D114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>63</v>
@@ -57681,14 +58079,14 @@
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
       <c r="E115" s="5" t="s">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>63</v>
@@ -57701,21 +58099,19 @@
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
       <c r="E116" s="5" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>509</v>
+        <v>331</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="H116" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -57727,13 +58123,13 @@
       <c r="C117" s="7"/>
       <c r="D117" s="6"/>
       <c r="E117" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>631</v>
+        <v>509</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>68</v>
+        <v>474</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>63</v>
@@ -57747,17 +58143,19 @@
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="5" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H118" s="4"/>
+      <c r="H118" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -57766,20 +58164,18 @@
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="5" t="s">
-        <v>910</v>
+        <v>551</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>909</v>
+        <v>550</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -57788,18 +58184,20 @@
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="6"/>
       <c r="E120" s="5" t="s">
-        <v>557</v>
+        <v>910</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>333</v>
+        <v>909</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H120" s="4"/>
+        <v>694</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -57811,10 +58209,10 @@
       <c r="C121" s="7"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>63</v>
@@ -57828,20 +58226,18 @@
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="17"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="6"/>
       <c r="E122" s="5" t="s">
-        <v>908</v>
+        <v>468</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>907</v>
+        <v>334</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -57850,18 +58246,20 @@
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
+      <c r="C123" s="17"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5" t="s">
-        <v>545</v>
+        <v>908</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>358</v>
+        <v>907</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H123" s="4"/>
+        <v>694</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
@@ -57873,13 +58271,13 @@
       <c r="C124" s="7"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -57893,13 +58291,13 @@
       <c r="C125" s="7"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -57913,13 +58311,13 @@
       <c r="C126" s="7"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -57933,13 +58331,13 @@
       <c r="C127" s="7"/>
       <c r="D127" s="6"/>
       <c r="E127" s="5" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -57953,13 +58351,13 @@
       <c r="C128" s="7"/>
       <c r="D128" s="6"/>
       <c r="E128" s="5" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -57973,13 +58371,13 @@
       <c r="C129" s="7"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -57989,17 +58387,17 @@
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="6"/>
       <c r="E130" s="5" t="s">
-        <v>465</v>
+        <v>1030</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>324</v>
+        <v>1029</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>63</v>
+        <v>825</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -58013,10 +58411,10 @@
       <c r="C131" s="7"/>
       <c r="D131" s="6"/>
       <c r="E131" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>63</v>
@@ -58027,16 +58425,16 @@
       <c r="K131" s="4"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="6"/>
       <c r="E132" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>63</v>
@@ -58047,16 +58445,16 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="6"/>
       <c r="E133" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>63</v>
@@ -58073,13 +58471,13 @@
       <c r="C134" s="7"/>
       <c r="D134" s="6"/>
       <c r="E134" s="5" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -58093,13 +58491,13 @@
       <c r="C135" s="7"/>
       <c r="D135" s="6"/>
       <c r="E135" s="5" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -58107,19 +58505,19 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="5" t="s">
-        <v>786</v>
+        <v>434</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>785</v>
+        <v>273</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>694</v>
+        <v>61</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -58129,17 +58527,17 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
       <c r="E137" s="5" t="s">
-        <v>819</v>
+        <v>1032</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>818</v>
+        <v>1031</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -58149,17 +58547,17 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="6"/>
       <c r="E138" s="5" t="s">
-        <v>821</v>
+        <v>1079</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>820</v>
+        <v>1080</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>63</v>
+        <v>1076</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -58173,13 +58571,13 @@
       <c r="C139" s="7"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5" t="s">
-        <v>823</v>
+        <v>433</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>822</v>
+        <v>359</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>694</v>
+        <v>61</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -58187,19 +58585,19 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>824</v>
+        <v>785</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>825</v>
+        <v>694</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -58213,13 +58611,13 @@
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
       <c r="E141" s="5" t="s">
-        <v>855</v>
+        <v>819</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>755</v>
+        <v>63</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -58233,13 +58631,13 @@
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
       <c r="E142" s="5" t="s">
-        <v>867</v>
+        <v>821</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>865</v>
+        <v>820</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>866</v>
+        <v>63</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -58248,40 +58646,38 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="17"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="17"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="6"/>
       <c r="E143" s="5" t="s">
-        <v>966</v>
+        <v>823</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>964</v>
+        <v>822</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>65</v>
+        <v>694</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="5" t="s">
-        <v>965</v>
-      </c>
+      <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="17"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="17"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="6"/>
       <c r="E144" s="5" t="s">
-        <v>968</v>
+        <v>826</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>967</v>
+        <v>824</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>65</v>
+        <v>825</v>
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -58295,13 +58691,13 @@
       <c r="C145" s="7"/>
       <c r="D145" s="6"/>
       <c r="E145" s="5" t="s">
-        <v>970</v>
+        <v>855</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>969</v>
+        <v>854</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>63</v>
+        <v>755</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -58311,17 +58707,17 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="6"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="6"/>
       <c r="E146" s="5" t="s">
-        <v>972</v>
+        <v>867</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>971</v>
+        <v>865</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>63</v>
+        <v>866</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -58330,27 +58726,41 @@
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="17"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="4"/>
+      <c r="E147" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="5"/>
+      <c r="L147" s="5" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="17"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="4"/>
+      <c r="E148" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -58358,13 +58768,19 @@
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="4"/>
+      <c r="E149" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -58372,13 +58788,19 @@
       <c r="L149" s="5"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="4"/>
+      <c r="E150" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -58974,10 +59396,10 @@
       <c r="L192" s="5"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="4"/>
@@ -58988,10 +59410,10 @@
       <c r="L193" s="5"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="4"/>
@@ -59002,10 +59424,10 @@
       <c r="L194" s="5"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="4"/>
@@ -59016,10 +59438,10 @@
       <c r="L195" s="5"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="4"/>
@@ -65133,6 +65555,62 @@
       <c r="K632" s="4"/>
       <c r="L632" s="5"/>
     </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A633" s="5"/>
+      <c r="B633" s="5"/>
+      <c r="C633" s="5"/>
+      <c r="D633" s="5"/>
+      <c r="E633" s="5"/>
+      <c r="F633" s="5"/>
+      <c r="G633" s="4"/>
+      <c r="H633" s="4"/>
+      <c r="I633" s="4"/>
+      <c r="J633" s="4"/>
+      <c r="K633" s="4"/>
+      <c r="L633" s="5"/>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A634" s="5"/>
+      <c r="B634" s="5"/>
+      <c r="C634" s="5"/>
+      <c r="D634" s="5"/>
+      <c r="E634" s="5"/>
+      <c r="F634" s="5"/>
+      <c r="G634" s="4"/>
+      <c r="H634" s="4"/>
+      <c r="I634" s="4"/>
+      <c r="J634" s="4"/>
+      <c r="K634" s="4"/>
+      <c r="L634" s="5"/>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A635" s="5"/>
+      <c r="B635" s="5"/>
+      <c r="C635" s="5"/>
+      <c r="D635" s="5"/>
+      <c r="E635" s="5"/>
+      <c r="F635" s="5"/>
+      <c r="G635" s="4"/>
+      <c r="H635" s="4"/>
+      <c r="I635" s="4"/>
+      <c r="J635" s="4"/>
+      <c r="K635" s="4"/>
+      <c r="L635" s="5"/>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A636" s="5"/>
+      <c r="B636" s="5"/>
+      <c r="C636" s="5"/>
+      <c r="D636" s="5"/>
+      <c r="E636" s="5"/>
+      <c r="F636" s="5"/>
+      <c r="G636" s="4"/>
+      <c r="H636" s="4"/>
+      <c r="I636" s="4"/>
+      <c r="J636" s="4"/>
+      <c r="K636" s="4"/>
+      <c r="L636" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -65144,7 +65622,7 @@
   <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68428,4 +68906,520 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="21" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>